--- a/templates/02-ont-gDNA.xlsx
+++ b/templates/02-ont-gDNA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/Desktop/2210-alarawi-ont/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796D19E8-3680-BB48-BE06-61C40D2B2263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7236A84B-5572-FA48-B7B8-1FC3E61CA409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="1360" windowWidth="27920" windowHeight="15940" xr2:uid="{0E74BB9A-F8B8-AA47-B7C7-EA2C2417D685}"/>
   </bookViews>
@@ -1111,7 +1111,7 @@
     <t>sample 17</t>
   </si>
   <si>
-    <t>Used here - 100 ng @ 7 Mb genome = 0.023 fmoles</t>
+    <t>Used here - 100 ng @ 30 kb DNA genome = 5.4 fmoles</t>
   </si>
 </sst>
 </file>
@@ -1275,13 +1275,13 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1333,14 +1333,14 @@
     <tableColumn id="4" xr3:uid="{80D148B5-CECA-CA44-B1DD-F9E1A8DAA6A0}" name="fmol/ul" dataDxfId="4">
       <calculatedColumnFormula>F9/((E9*617.96)+36.04) * 1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6A4DD60B-B1AB-FF44-9E4F-4697D7C0CC9E}" name="ul plasmid" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{6A4DD60B-B1AB-FF44-9E4F-4697D7C0CC9E}" name="ul plasmid" dataDxfId="3">
       <calculatedColumnFormula array="1">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{53D08A06-9EBD-1143-A0BC-3E9BC0C89175}" name="ul water to 4.5" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{53D08A06-9EBD-1143-A0BC-3E9BC0C89175}" name="ul water to 4.5" dataDxfId="2">
       <calculatedColumnFormula>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0EE7AD1A-A1CC-364C-B346-C43B6AB6BFEF}" name="dest well" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{DDAE90F6-C57C-A64E-B7AF-286C3EB0FE38}" name="barcode well" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{0EE7AD1A-A1CC-364C-B346-C43B6AB6BFEF}" name="dest well" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{DDAE90F6-C57C-A64E-B7AF-286C3EB0FE38}" name="barcode well" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1657,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842AFD07-9B34-384A-83A8-BAD898DE59C4}">
-  <dimension ref="B1:R105"/>
+  <dimension ref="B1:Q105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1680,22 +1680,22 @@
     <col min="16" max="16" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>319</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1714,10 +1714,10 @@
         <v>9</v>
       </c>
       <c r="J5">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="M7" t="s">
         <v>323</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>306</v>
       </c>
@@ -1794,11 +1794,11 @@
       <c r="P8" t="s">
         <v>313</v>
       </c>
-      <c r="R8" t="s">
+      <c r="Q8" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>113</v>
       </c>
@@ -1809,22 +1809,22 @@
         <v>210</v>
       </c>
       <c r="E9">
-        <v>5000000</v>
+        <v>30000</v>
       </c>
       <c r="F9">
         <v>14</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" ref="G9:G23" si="0">F9/((E9*617.96)+36.04) * 1000000</f>
-        <v>4.5310375547612811E-3</v>
+        <v>0.75517146652536016</v>
       </c>
       <c r="H9" s="2" cm="1">
         <f t="array" ref="H9">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>8.8280001029714281</v>
+        <v>7.1506939011428576</v>
       </c>
       <c r="I9" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>0.17199989702857188</v>
+        <v>1.8493060988571424</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>113</v>
@@ -1840,7 +1840,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>114</v>
       </c>
@@ -1851,22 +1851,22 @@
         <v>211</v>
       </c>
       <c r="E10">
-        <v>5000000</v>
+        <v>30000</v>
       </c>
       <c r="F10">
         <v>81</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>2.6215288709690268E-2</v>
+        <v>4.3692063420395835</v>
       </c>
       <c r="H10" s="2" cm="1">
         <f t="array" ref="H10">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>1.5258271782913582</v>
+        <v>1.2359224026666669</v>
       </c>
       <c r="I10" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>7.4741728217086418</v>
+        <v>7.7640775973333334</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>114</v>
@@ -1882,7 +1882,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>115</v>
       </c>
@@ -1893,22 +1893,22 @@
         <v>212</v>
       </c>
       <c r="E11">
-        <v>5000000</v>
+        <v>30000</v>
       </c>
       <c r="F11">
         <v>40</v>
       </c>
       <c r="G11" s="2">
         <f>F11/((E11*617.96)+36.04) * 1000000</f>
-        <v>1.2945821585032231E-2</v>
+        <v>2.1576327615010289</v>
       </c>
       <c r="H11" s="2" cm="1">
         <f t="array" ref="H11">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>3.0898000360400002</v>
+        <v>2.5027428654000001</v>
       </c>
       <c r="I11" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>5.9101999639600002</v>
+        <v>6.4972571345999999</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>115</v>
@@ -1918,7 +1918,7 @@
         <v>C01</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>116</v>
       </c>
@@ -1929,22 +1929,22 @@
         <v>213</v>
       </c>
       <c r="E12">
-        <v>5000000</v>
+        <v>30000</v>
       </c>
       <c r="F12">
         <v>22</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>7.1202018717677279E-3</v>
+        <v>1.186698018825566</v>
       </c>
       <c r="H12" s="2" cm="1">
         <f t="array" ref="H12">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>5.6178182473454541</v>
+        <v>4.5504415734545454</v>
       </c>
       <c r="I12" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>3.3821817526545459</v>
+        <v>4.4495584265454546</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>116</v>
@@ -1960,7 +1960,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>117</v>
       </c>
@@ -1971,14 +1971,14 @@
         <v>214</v>
       </c>
       <c r="E13">
-        <v>5000000</v>
+        <v>30000</v>
       </c>
       <c r="F13">
         <v>344</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>0.11133406563127719</v>
+        <v>18.555641748908851</v>
       </c>
       <c r="H13" s="2" cm="1">
         <f t="array" ref="H13">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>118</v>
       </c>
@@ -2011,22 +2011,22 @@
         <v>215</v>
       </c>
       <c r="E14">
-        <v>5000000</v>
+        <v>30000</v>
       </c>
       <c r="F14">
         <v>216</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>6.9907436559174058E-2</v>
+        <v>11.651216912105557</v>
       </c>
       <c r="H14" s="2" cm="1">
         <f t="array" ref="H14">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.5721851918592592</v>
+        <v>0.5</v>
       </c>
       <c r="I14" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>8.4278148081407416</v>
+        <v>8.5</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>118</v>
@@ -2036,7 +2036,7 @@
         <v>F01</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>119</v>
       </c>
@@ -2047,22 +2047,22 @@
         <v>216</v>
       </c>
       <c r="E15">
-        <v>5000000</v>
+        <v>30000</v>
       </c>
       <c r="F15">
         <v>62</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
-        <v>2.0066023456799958E-2</v>
+        <v>3.3443307803265947</v>
       </c>
       <c r="H15" s="2" cm="1">
         <f t="array" ref="H15">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>1.9934193780903229</v>
+        <v>1.6146728163870969</v>
       </c>
       <c r="I15" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>7.0065806219096771</v>
+        <v>7.3853271836129029</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>119</v>
@@ -2072,7 +2072,7 @@
         <v>G01</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>120</v>
       </c>
@@ -2083,22 +2083,22 @@
         <v>217</v>
       </c>
       <c r="E16">
-        <v>5000000</v>
+        <v>30000</v>
       </c>
       <c r="F16">
         <v>75</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="0"/>
-        <v>2.4273415471935435E-2</v>
+        <v>4.0455614278144294</v>
       </c>
       <c r="H16" s="2" cm="1">
         <f t="array" ref="H16">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>1.6478933525546666</v>
+        <v>1.33479619488</v>
       </c>
       <c r="I16" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>7.3521066474453338</v>
+        <v>7.66520380512</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>120</v>
@@ -2119,22 +2119,22 @@
         <v>218</v>
       </c>
       <c r="E17">
-        <v>5000000</v>
+        <v>30000</v>
       </c>
       <c r="F17">
         <v>82</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="0"/>
-        <v>2.6538934249316078E-2</v>
+        <v>4.4231471610771091</v>
       </c>
       <c r="H17" s="2" cm="1">
         <f t="array" ref="H17">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>1.5072195297756097</v>
+        <v>1.2208501782439025</v>
       </c>
       <c r="I17" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>7.4927804702243908</v>
+        <v>7.7791498217560973</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>121</v>
@@ -2155,22 +2155,22 @@
         <v>219</v>
       </c>
       <c r="E18">
-        <v>5000000</v>
+        <v>30000</v>
       </c>
       <c r="F18">
         <v>40</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="0"/>
-        <v>1.2945821585032231E-2</v>
+        <v>2.1576327615010289</v>
       </c>
       <c r="H18" s="2" cm="1">
         <f t="array" ref="H18">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>3.0898000360400002</v>
+        <v>2.5027428654000001</v>
       </c>
       <c r="I18" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>5.9101999639600002</v>
+        <v>6.4972571345999999</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>122</v>
@@ -2191,22 +2191,22 @@
         <v>220</v>
       </c>
       <c r="E19">
-        <v>5000000</v>
+        <v>30000</v>
       </c>
       <c r="F19">
         <v>121</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="0"/>
-        <v>3.9161110294722502E-2</v>
+        <v>6.5268391035406133</v>
       </c>
       <c r="H19" s="2" cm="1">
         <f t="array" ref="H19">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>1.0214214995173554</v>
+        <v>0.82735301335537192</v>
       </c>
       <c r="I19" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>7.9785785004826444</v>
+        <v>8.1726469866446276</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>123</v>
@@ -2227,22 +2227,22 @@
         <v>221</v>
       </c>
       <c r="E20">
-        <v>5000000</v>
+        <v>30000</v>
       </c>
       <c r="F20">
         <v>141</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="0"/>
-        <v>4.5634021087238616E-2</v>
+        <v>7.6056554842911277</v>
       </c>
       <c r="H20" s="2" cm="1">
         <f t="array" ref="H20">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.87653901731631212</v>
+        <v>0.70999797600000003</v>
       </c>
       <c r="I20" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>8.1234609826836888</v>
+        <v>8.2900020239999996</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>124</v>
@@ -2263,22 +2263,22 @@
         <v>222</v>
       </c>
       <c r="E21">
-        <v>5000000</v>
+        <v>30000</v>
       </c>
       <c r="F21">
         <v>194</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="0"/>
-        <v>6.2787234687406324E-2</v>
+        <v>10.46451889327999</v>
       </c>
       <c r="H21" s="2" cm="1">
         <f t="array" ref="H21">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.63707217237938152</v>
+        <v>0.5160294567835052</v>
       </c>
       <c r="I21" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>8.3629278276206183</v>
+        <v>8.4839705432164951</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>125</v>
@@ -2299,22 +2299,22 @@
         <v>223</v>
       </c>
       <c r="E22">
-        <v>5000000</v>
+        <v>30000</v>
       </c>
       <c r="F22">
         <v>224</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="0"/>
-        <v>7.2496600876180498E-2</v>
+        <v>12.082743464405763</v>
       </c>
       <c r="H22" s="2" cm="1">
         <f t="array" ref="H22">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.55175000643571426</v>
+        <v>0.5</v>
       </c>
       <c r="I22" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>8.4482499935642856</v>
+        <v>8.5</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>126</v>
@@ -2335,22 +2335,22 @@
         <v>224</v>
       </c>
       <c r="E23">
-        <v>5000000</v>
+        <v>30000</v>
       </c>
       <c r="F23">
         <v>102</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="0"/>
-        <v>3.3011845041832188E-2</v>
+        <v>5.5019635418276236</v>
       </c>
       <c r="H23" s="2" cm="1">
         <f t="array" ref="H23">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>1.2116862886431374</v>
+        <v>0.98146779035294129</v>
       </c>
       <c r="I23" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>7.7883137113568628</v>
+        <v>8.0185322096470593</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>127</v>
@@ -2371,22 +2371,22 @@
         <v>225</v>
       </c>
       <c r="E24">
-        <v>5000000</v>
+        <v>30000</v>
       </c>
       <c r="F24">
         <v>130</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" ref="G24" si="1">F24/((E24*617.96)+36.04) * 1000000</f>
-        <v>4.2073920151354756E-2</v>
+        <v>7.0123064748783444</v>
       </c>
       <c r="H24" s="2" cm="1">
         <f t="array" ref="H24">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.95070770339692301</v>
+        <v>0.77007472781538466</v>
       </c>
       <c r="I24" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>8.0492922966030775</v>
+        <v>8.2299252721846159</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>128</v>
@@ -2407,22 +2407,22 @@
         <v>226</v>
       </c>
       <c r="E25">
-        <v>5000000</v>
+        <v>30000</v>
       </c>
       <c r="F25">
         <v>167</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" ref="G25:G38" si="2">F25/((E25*617.96)+36.04) * 1000000</f>
-        <v>5.4048805117509563E-2</v>
+        <v>9.0081167792667962</v>
       </c>
       <c r="H25" s="2" cm="1">
         <f t="array" ref="H25">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.74007186491976051</v>
+        <v>0.59945936895808383</v>
       </c>
       <c r="I25" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>8.2599281350802389</v>
+        <v>8.4005406310419168</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>129</v>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="C2" s="9">
         <f>main!H9</f>
-        <v>8.8280001029714281</v>
+        <v>7.1506939011428576</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>IF(C2=0, "", "A01")</f>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="F2" s="9">
         <f>main!I9</f>
-        <v>0.17199989702857188</v>
+        <v>1.8493060988571424</v>
       </c>
       <c r="G2" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D9,Table2[name],Table2[well],"")</f>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="C3" s="9">
         <f>main!H10</f>
-        <v>1.5258271782913582</v>
+        <v>1.2359224026666669</v>
       </c>
       <c r="D3" s="8" t="str">
         <f t="shared" ref="D3:D66" si="0">IF(C3=0, "", "A01")</f>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="F3" s="9">
         <f>main!I10</f>
-        <v>7.4741728217086418</v>
+        <v>7.7640775973333334</v>
       </c>
       <c r="G3" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D10,Table2[name],Table2[well],"")</f>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="C4" s="9">
         <f>main!H11</f>
-        <v>3.0898000360400002</v>
+        <v>2.5027428654000001</v>
       </c>
       <c r="D4" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="F4" s="9">
         <f>main!I11</f>
-        <v>5.9101999639600002</v>
+        <v>6.4972571345999999</v>
       </c>
       <c r="G4" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D11,Table2[name],Table2[well],"")</f>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="C5" s="9">
         <f>main!H12</f>
-        <v>5.6178182473454541</v>
+        <v>4.5504415734545454</v>
       </c>
       <c r="D5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="F5" s="9">
         <f>main!I12</f>
-        <v>3.3821817526545459</v>
+        <v>4.4495584265454546</v>
       </c>
       <c r="G5" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D12,Table2[name],Table2[well],"")</f>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="C7" s="9">
         <f>main!H14</f>
-        <v>0.5721851918592592</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="F7" s="9">
         <f>main!I14</f>
-        <v>8.4278148081407416</v>
+        <v>8.5</v>
       </c>
       <c r="G7" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D14,Table2[name],Table2[well],"")</f>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="C8" s="9">
         <f>main!H15</f>
-        <v>1.9934193780903229</v>
+        <v>1.6146728163870969</v>
       </c>
       <c r="D8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5870,7 +5870,7 @@
       </c>
       <c r="F8" s="9">
         <f>main!I15</f>
-        <v>7.0065806219096771</v>
+        <v>7.3853271836129029</v>
       </c>
       <c r="G8" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D15,Table2[name],Table2[well],"")</f>
@@ -5894,7 +5894,7 @@
       </c>
       <c r="C9" s="9">
         <f>main!H16</f>
-        <v>1.6478933525546666</v>
+        <v>1.33479619488</v>
       </c>
       <c r="D9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5905,7 +5905,7 @@
       </c>
       <c r="F9" s="9">
         <f>main!I16</f>
-        <v>7.3521066474453338</v>
+        <v>7.66520380512</v>
       </c>
       <c r="G9" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D16,Table2[name],Table2[well],"")</f>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="C10" s="9">
         <f>main!H17</f>
-        <v>1.5072195297756097</v>
+        <v>1.2208501782439025</v>
       </c>
       <c r="D10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="F10" s="9">
         <f>main!I17</f>
-        <v>7.4927804702243908</v>
+        <v>7.7791498217560973</v>
       </c>
       <c r="G10" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D17,Table2[name],Table2[well],"")</f>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="C11" s="9">
         <f>main!H18</f>
-        <v>3.0898000360400002</v>
+        <v>2.5027428654000001</v>
       </c>
       <c r="D11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5975,7 +5975,7 @@
       </c>
       <c r="F11" s="9">
         <f>main!I18</f>
-        <v>5.9101999639600002</v>
+        <v>6.4972571345999999</v>
       </c>
       <c r="G11" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D18,Table2[name],Table2[well],"")</f>
@@ -5999,7 +5999,7 @@
       </c>
       <c r="C12" s="9">
         <f>main!H19</f>
-        <v>1.0214214995173554</v>
+        <v>0.82735301335537192</v>
       </c>
       <c r="D12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="F12" s="9">
         <f>main!I19</f>
-        <v>7.9785785004826444</v>
+        <v>8.1726469866446276</v>
       </c>
       <c r="G12" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D19,Table2[name],Table2[well],"")</f>
@@ -6034,7 +6034,7 @@
       </c>
       <c r="C13" s="9">
         <f>main!H20</f>
-        <v>0.87653901731631212</v>
+        <v>0.70999797600000003</v>
       </c>
       <c r="D13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="F13" s="9">
         <f>main!I20</f>
-        <v>8.1234609826836888</v>
+        <v>8.2900020239999996</v>
       </c>
       <c r="G13" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D20,Table2[name],Table2[well],"")</f>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="C14" s="9">
         <f>main!H21</f>
-        <v>0.63707217237938152</v>
+        <v>0.5160294567835052</v>
       </c>
       <c r="D14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="F14" s="9">
         <f>main!I21</f>
-        <v>8.3629278276206183</v>
+        <v>8.4839705432164951</v>
       </c>
       <c r="G14" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D21,Table2[name],Table2[well],"")</f>
@@ -6104,7 +6104,7 @@
       </c>
       <c r="C15" s="9">
         <f>main!H22</f>
-        <v>0.55175000643571426</v>
+        <v>0.5</v>
       </c>
       <c r="D15" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="F15" s="9">
         <f>main!I22</f>
-        <v>8.4482499935642856</v>
+        <v>8.5</v>
       </c>
       <c r="G15" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D22,Table2[name],Table2[well],"")</f>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="C16" s="9">
         <f>main!H23</f>
-        <v>1.2116862886431374</v>
+        <v>0.98146779035294129</v>
       </c>
       <c r="D16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6150,7 +6150,7 @@
       </c>
       <c r="F16" s="9">
         <f>main!I23</f>
-        <v>7.7883137113568628</v>
+        <v>8.0185322096470593</v>
       </c>
       <c r="G16" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D23,Table2[name],Table2[well],"")</f>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="C17" s="9">
         <f>main!H24</f>
-        <v>0.95070770339692301</v>
+        <v>0.77007472781538466</v>
       </c>
       <c r="D17" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F17" s="9">
         <f>main!I24</f>
-        <v>8.0492922966030775</v>
+        <v>8.2299252721846159</v>
       </c>
       <c r="G17" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D24,Table2[name],Table2[well],"")</f>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="C18" s="9">
         <f>main!H25</f>
-        <v>0.74007186491976051</v>
+        <v>0.59945936895808383</v>
       </c>
       <c r="D18" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6220,7 +6220,7 @@
       </c>
       <c r="F18" s="9">
         <f>main!I25</f>
-        <v>8.2599281350802389</v>
+        <v>8.4005406310419168</v>
       </c>
       <c r="G18" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D25,Table2[name],Table2[well],"")</f>

--- a/templates/02-ont-gDNA.xlsx
+++ b/templates/02-ont-gDNA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7236A84B-5572-FA48-B7B8-1FC3E61CA409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EC062B-192A-7744-81CA-04B797E5D47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="1360" windowWidth="27920" windowHeight="15940" xr2:uid="{0E74BB9A-F8B8-AA47-B7C7-EA2C2417D685}"/>
   </bookViews>
@@ -1659,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842AFD07-9B34-384A-83A8-BAD898DE59C4}">
   <dimension ref="B1:Q105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1815,7 +1815,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" ref="G9:G23" si="0">F9/((E9*617.96)+36.04) * 1000000</f>
+        <f>F9/((E9*617.96)+36.04) * 1000000</f>
         <v>0.75517146652536016</v>
       </c>
       <c r="H9" s="2" cm="1">
@@ -1857,7 +1857,7 @@
         <v>81</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G9:G23" si="0">F10/((E10*617.96)+36.04) * 1000000</f>
         <v>4.3692063420395835</v>
       </c>
       <c r="H10" s="2" cm="1">

--- a/templates/02-ont-gDNA.xlsx
+++ b/templates/02-ont-gDNA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EC062B-192A-7744-81CA-04B797E5D47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D422C64-C8BD-7F4C-8F01-38CDDFF74956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="1360" windowWidth="27920" windowHeight="15940" xr2:uid="{0E74BB9A-F8B8-AA47-B7C7-EA2C2417D685}"/>
+    <workbookView xWindow="-2600" yWindow="-20500" windowWidth="27920" windowHeight="15940" xr2:uid="{0E74BB9A-F8B8-AA47-B7C7-EA2C2417D685}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,10 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="351">
-  <si>
-    <t>Plasmid sequencing ONT at BCL - Opentrons template</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="340">
   <si>
     <t>The incubations are done off instrument</t>
   </si>
@@ -73,36 +70,15 @@
     <t>sample name</t>
   </si>
   <si>
-    <t>plasmid size</t>
-  </si>
-  <si>
-    <t>ul plasmid</t>
-  </si>
-  <si>
     <t>sample 1</t>
   </si>
   <si>
-    <t>ul water to 4.5</t>
-  </si>
-  <si>
     <t>Constants used for calculations:</t>
   </si>
   <si>
-    <t>fmoles per rxn</t>
-  </si>
-  <si>
-    <t>min pipetting vol</t>
-  </si>
-  <si>
     <t>ng/ul</t>
   </si>
   <si>
-    <t>fmol/ul</t>
-  </si>
-  <si>
-    <t>SQK-RBK110.96</t>
-  </si>
-  <si>
     <t>SQK-RBK110.96 rapid barcode plate</t>
   </si>
   <si>
@@ -1018,9 +994,6 @@
     <t>rapid barcode plate</t>
   </si>
   <si>
-    <t>This template is used to prepare the data for protocols/ont-plasmid.py</t>
-  </si>
-  <si>
     <t>Deck layout for protocols/02-ont-plasmid.py:</t>
   </si>
   <si>
@@ -1069,56 +1042,50 @@
     <t>sample 3</t>
   </si>
   <si>
-    <t>sample 4</t>
-  </si>
-  <si>
-    <t>sample 5</t>
-  </si>
-  <si>
-    <t>sample 6</t>
-  </si>
-  <si>
-    <t>sample 7</t>
-  </si>
-  <si>
-    <t>sample 8</t>
-  </si>
-  <si>
-    <t>sample 9</t>
-  </si>
-  <si>
-    <t>sample 10</t>
-  </si>
-  <si>
-    <t>sample 11</t>
-  </si>
-  <si>
-    <t>sample 12</t>
-  </si>
-  <si>
-    <t>sample 13</t>
-  </si>
-  <si>
-    <t>sample 14</t>
-  </si>
-  <si>
-    <t>sample 15</t>
-  </si>
-  <si>
-    <t>sample 16</t>
-  </si>
-  <si>
-    <t>sample 17</t>
-  </si>
-  <si>
-    <t>Used here - 100 ng @ 30 kb DNA genome = 5.4 fmoles</t>
+    <t>ul water to 10</t>
+  </si>
+  <si>
+    <t>DNA size</t>
+  </si>
+  <si>
+    <t>ng per rxn</t>
+  </si>
+  <si>
+    <t>Use 50 ng/sample for &gt; 4 samples and 200 ng/sample for &lt; 4 samples</t>
+  </si>
+  <si>
+    <t>ul DNA</t>
+  </si>
+  <si>
+    <t>min/max pipetting vol</t>
+  </si>
+  <si>
+    <t>0.5/10</t>
+  </si>
+  <si>
+    <t>total fmoles</t>
+  </si>
+  <si>
+    <t>This template is used to prepare the data for protocols/ont-rapid.py</t>
+  </si>
+  <si>
+    <t>number of samples</t>
+  </si>
+  <si>
+    <t>fmol/rxn</t>
+  </si>
+  <si>
+    <t>gDNA sequencing rapid ONT at BCL - Opentrons template</t>
+  </si>
+  <si>
+    <t>SQK-RBK114.96</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1165,6 +1132,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1192,7 +1183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1235,11 +1226,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1259,23 +1259,64 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1285,6 +1326,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1322,25 +1364,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59494247-6707-4A4B-A68E-97E8FDDD4AF4}" name="Table1" displayName="Table1" ref="B8:K104" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59494247-6707-4A4B-A68E-97E8FDDD4AF4}" name="Table1" displayName="Table1" ref="B8:K104" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B8:K104" xr:uid="{59494247-6707-4A4B-A68E-97E8FDDD4AF4}"/>
   <tableColumns count="10">
-    <tableColumn id="8" xr3:uid="{FA78698F-F611-D543-B141-D777144BECEE}" name="source well" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{FA78698F-F611-D543-B141-D777144BECEE}" name="source well" dataDxfId="6"/>
     <tableColumn id="1" xr3:uid="{91DE4E1A-6DA9-5D41-9DB5-21149FC9505F}" name="sample name"/>
     <tableColumn id="7" xr3:uid="{E7F73DE6-44A2-FD49-95BC-9E263FB79FB0}" name="barcode"/>
-    <tableColumn id="2" xr3:uid="{D3E7E880-2BC6-B94A-AFA4-408237577810}" name="plasmid size"/>
+    <tableColumn id="2" xr3:uid="{D3E7E880-2BC6-B94A-AFA4-408237577810}" name="DNA size" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{AF07D2D6-012E-8643-901A-5055CCEAF026}" name="ng/ul"/>
-    <tableColumn id="4" xr3:uid="{80D148B5-CECA-CA44-B1DD-F9E1A8DAA6A0}" name="fmol/ul" dataDxfId="4">
-      <calculatedColumnFormula>F9/((E9*617.96)+36.04) * 1000000</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{80D148B5-CECA-CA44-B1DD-F9E1A8DAA6A0}" name="fmol/rxn" dataDxfId="0">
+      <calculatedColumnFormula array="1">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F9/((E9*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6A4DD60B-B1AB-FF44-9E4F-4697D7C0CC9E}" name="ul plasmid" dataDxfId="3">
-      <calculatedColumnFormula array="1">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{6A4DD60B-B1AB-FF44-9E4F-4697D7C0CC9E}" name="ul DNA" dataDxfId="1">
+      <calculatedColumnFormula array="1">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{53D08A06-9EBD-1143-A0BC-3E9BC0C89175}" name="ul water to 4.5" dataDxfId="2">
-      <calculatedColumnFormula>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{53D08A06-9EBD-1143-A0BC-3E9BC0C89175}" name="ul water to 10" dataDxfId="3">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0EE7AD1A-A1CC-364C-B346-C43B6AB6BFEF}" name="dest well" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{DDAE90F6-C57C-A64E-B7AF-286C3EB0FE38}" name="barcode well" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{0EE7AD1A-A1CC-364C-B346-C43B6AB6BFEF}" name="dest well" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{DDAE90F6-C57C-A64E-B7AF-286C3EB0FE38}" name="barcode well" dataDxfId="4">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1361,7 +1403,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1649,7 +1691,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1660,7 +1702,7 @@
   <dimension ref="B1:Q105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1668,250 +1710,254 @@
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="12" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="16.1640625" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" customWidth="1"/>
     <col min="15" max="15" width="12.5" customWidth="1"/>
     <col min="16" max="16" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="I3" t="s">
-        <v>350</v>
+      <c r="I3" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>319</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="17"/>
       <c r="M4" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5">
-        <v>5.4</v>
+        <v>329</v>
+      </c>
+      <c r="J5" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G6" s="18"/>
       <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="s">
-        <v>321</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>322</v>
+        <v>332</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>313</v>
       </c>
       <c r="P6" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="Q6" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M7" t="s">
-        <v>323</v>
-      </c>
-      <c r="N7" s="12">
+      <c r="G7" s="19"/>
+      <c r="M7" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="N7" s="11">
         <v>4</v>
       </c>
       <c r="P7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="Q7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>328</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>5</v>
+        <v>331</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>7</v>
+        <v>327</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="M8" t="s">
-        <v>317</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>325</v>
+        <v>320</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>316</v>
       </c>
       <c r="P8" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="Q8" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E9">
+        <v>202</v>
+      </c>
+      <c r="E9" s="12">
         <v>30000</v>
       </c>
       <c r="F9">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2">
-        <f>F9/((E9*617.96)+36.04) * 1000000</f>
-        <v>0.75517146652536016</v>
+        <v>50</v>
+      </c>
+      <c r="G9" s="14" cm="1">
+        <f t="array" ref="G9">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F9/((E9*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
+        <v>5.3940819037525722</v>
       </c>
       <c r="H9" s="2" cm="1">
-        <f t="array" ref="H9">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>7.1506939011428576</v>
+        <f t="array" ref="H9">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
+        <v>2</v>
       </c>
       <c r="I9" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>1.8493060988571424</v>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
+        <v>8</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K9" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v>A01</v>
       </c>
-      <c r="M9" t="s">
-        <v>328</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>324</v>
+      <c r="M9" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10">
+        <v>203</v>
+      </c>
+      <c r="E10" s="12">
         <v>30000</v>
       </c>
       <c r="F10">
-        <v>81</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" ref="G9:G23" si="0">F10/((E10*617.96)+36.04) * 1000000</f>
-        <v>4.3692063420395835</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" cm="1">
+        <f t="array" ref="G10">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F10/((E10*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
+        <v>5.3940819037525722</v>
       </c>
       <c r="H10" s="2" cm="1">
-        <f t="array" ref="H10">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>1.2359224026666669</v>
+        <f t="array" ref="H10">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
+        <v>10</v>
       </c>
       <c r="I10" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>7.7640775973333334</v>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K10" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v>B01</v>
       </c>
-      <c r="M10" t="s">
-        <v>327</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>326</v>
+      <c r="M10" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11">
+        <v>204</v>
+      </c>
+      <c r="E11" s="12">
         <v>30000</v>
       </c>
       <c r="F11">
-        <v>40</v>
-      </c>
-      <c r="G11" s="2">
-        <f>F11/((E11*617.96)+36.04) * 1000000</f>
-        <v>2.1576327615010289</v>
+        <v>100</v>
+      </c>
+      <c r="G11" s="14" cm="1">
+        <f t="array" ref="G11">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F11/((E11*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
+        <v>5.3940819037525722</v>
       </c>
       <c r="H11" s="2" cm="1">
-        <f t="array" ref="H11">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>2.5027428654000001</v>
+        <f t="array" ref="H11">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
+        <v>1</v>
       </c>
       <c r="I11" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>6.4972571345999999</v>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
+        <v>9</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="K11" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -1920,534 +1966,366 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="12">
+        <v>30000</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12" s="14" cm="1">
+        <f t="array" ref="G12">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F12/((E12*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
+        <v>5.3940819037525722</v>
+      </c>
+      <c r="H12" s="2" cm="1">
+        <f t="array" ref="H12">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="2">
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
+        <v>9.5</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v>D01</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="G13" s="14" cm="1">
+        <f t="array" ref="G13">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F13/((E13*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" cm="1">
+        <f t="array" ref="H13">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="N13">
+        <f>COUNTA(Table1[source well])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="G14" s="14" cm="1">
+        <f t="array" ref="G14">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F14/((E14*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" cm="1">
+        <f t="array" ref="H14">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="N14" s="20">
+        <f>N13*11</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="G15" s="14" cm="1">
+        <f t="array" ref="G15">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F15/((E15*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" cm="1">
+        <f t="array" ref="H15">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="N15" s="22">
+        <f>SUM(Table1[fmol/rxn])</f>
+        <v>21.576327615010289</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="G16" s="14" cm="1">
+        <f t="array" ref="G16">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F16/((E16*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" cm="1">
+        <f t="array" ref="H16">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="G17" s="14" cm="1">
+        <f t="array" ref="G17">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F17/((E17*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" cm="1">
+        <f t="array" ref="H17">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="G18" s="14" cm="1">
+        <f t="array" ref="G18">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F18/((E18*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" cm="1">
+        <f t="array" ref="H18">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="G19" s="14" cm="1">
+        <f t="array" ref="G19">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F19/((E19*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" cm="1">
+        <f t="array" ref="H19">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="G20" s="14" cm="1">
+        <f t="array" ref="G20">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F20/((E20*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" cm="1">
+        <f t="array" ref="H20">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C12" t="s">
-        <v>336</v>
-      </c>
-      <c r="D12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12">
-        <v>30000</v>
-      </c>
-      <c r="F12">
-        <v>22</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>1.186698018825566</v>
-      </c>
-      <c r="H12" s="2" cm="1">
-        <f t="array" ref="H12">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>4.5504415734545454</v>
-      </c>
-      <c r="I12" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>4.4495584265454546</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" s="9" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>D01</v>
-      </c>
-      <c r="M12" t="s">
-        <v>331</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="K20" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="G21" s="14" cm="1">
+        <f t="array" ref="G21">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F21/((E21*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" cm="1">
+        <f t="array" ref="H21">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C13" t="s">
-        <v>337</v>
-      </c>
-      <c r="D13" t="s">
-        <v>214</v>
-      </c>
-      <c r="E13">
-        <v>30000</v>
-      </c>
-      <c r="F13">
-        <v>344</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>18.555641748908851</v>
-      </c>
-      <c r="H13" s="2" cm="1">
-        <f t="array" ref="H13">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>8.5</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="K13" s="9" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>E01</v>
-      </c>
-      <c r="M13" t="s">
-        <v>333</v>
-      </c>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="K21" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="G22" s="14" cm="1">
+        <f t="array" ref="G22">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F22/((E22*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" cm="1">
+        <f t="array" ref="H22">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C14" t="s">
-        <v>338</v>
-      </c>
-      <c r="D14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E14">
-        <v>30000</v>
-      </c>
-      <c r="F14">
-        <v>216</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>11.651216912105557</v>
-      </c>
-      <c r="H14" s="2" cm="1">
-        <f t="array" ref="H14">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>8.5</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="K14" s="9" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>F01</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="K22" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="G23" s="14" cm="1">
+        <f t="array" ref="G23">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F23/((E23*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" cm="1">
+        <f t="array" ref="H23">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C15" t="s">
-        <v>339</v>
-      </c>
-      <c r="D15" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15">
-        <v>30000</v>
-      </c>
-      <c r="F15">
-        <v>62</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3443307803265947</v>
-      </c>
-      <c r="H15" s="2" cm="1">
-        <f t="array" ref="H15">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>1.6146728163870969</v>
-      </c>
-      <c r="I15" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>7.3853271836129029</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="K15" s="9" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>G01</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+      <c r="K23" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="G24" s="14" cm="1">
+        <f t="array" ref="G24">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F24/((E24*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="2" cm="1">
+        <f t="array" ref="H24">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C16" t="s">
-        <v>340</v>
-      </c>
-      <c r="D16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E16">
-        <v>30000</v>
-      </c>
-      <c r="F16">
-        <v>75</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0455614278144294</v>
-      </c>
-      <c r="H16" s="2" cm="1">
-        <f t="array" ref="H16">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>1.33479619488</v>
-      </c>
-      <c r="I16" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>7.66520380512</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="K16" s="9" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>H01</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+      <c r="K24" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="G25" s="14" cm="1">
+        <f t="array" ref="G25">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F25/((E25*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" cm="1">
+        <f t="array" ref="H25">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C17" t="s">
-        <v>341</v>
-      </c>
-      <c r="D17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E17">
-        <v>30000</v>
-      </c>
-      <c r="F17">
-        <v>82</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="0"/>
-        <v>4.4231471610771091</v>
-      </c>
-      <c r="H17" s="2" cm="1">
-        <f t="array" ref="H17">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>1.2208501782439025</v>
-      </c>
-      <c r="I17" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>7.7791498217560973</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="K17" s="9" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>A02</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" t="s">
-        <v>342</v>
-      </c>
-      <c r="D18" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18">
-        <v>30000</v>
-      </c>
-      <c r="F18">
-        <v>40</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1576327615010289</v>
-      </c>
-      <c r="H18" s="2" cm="1">
-        <f t="array" ref="H18">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>2.5027428654000001</v>
-      </c>
-      <c r="I18" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>6.4972571345999999</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="K18" s="9" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>B02</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" t="s">
-        <v>343</v>
-      </c>
-      <c r="D19" t="s">
-        <v>220</v>
-      </c>
-      <c r="E19">
-        <v>30000</v>
-      </c>
-      <c r="F19">
-        <v>121</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="0"/>
-        <v>6.5268391035406133</v>
-      </c>
-      <c r="H19" s="2" cm="1">
-        <f t="array" ref="H19">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.82735301335537192</v>
-      </c>
-      <c r="I19" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>8.1726469866446276</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" s="9" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>C02</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" t="s">
-        <v>344</v>
-      </c>
-      <c r="D20" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20">
-        <v>30000</v>
-      </c>
-      <c r="F20">
-        <v>141</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="0"/>
-        <v>7.6056554842911277</v>
-      </c>
-      <c r="H20" s="2" cm="1">
-        <f t="array" ref="H20">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.70999797600000003</v>
-      </c>
-      <c r="I20" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>8.2900020239999996</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" s="9" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>D02</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" t="s">
-        <v>345</v>
-      </c>
-      <c r="D21" t="s">
-        <v>222</v>
-      </c>
-      <c r="E21">
-        <v>30000</v>
-      </c>
-      <c r="F21">
-        <v>194</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="0"/>
-        <v>10.46451889327999</v>
-      </c>
-      <c r="H21" s="2" cm="1">
-        <f t="array" ref="H21">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.5160294567835052</v>
-      </c>
-      <c r="I21" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>8.4839705432164951</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K21" s="9" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>E02</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" t="s">
-        <v>346</v>
-      </c>
-      <c r="D22" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22">
-        <v>30000</v>
-      </c>
-      <c r="F22">
-        <v>224</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="0"/>
-        <v>12.082743464405763</v>
-      </c>
-      <c r="H22" s="2" cm="1">
-        <f t="array" ref="H22">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.5</v>
-      </c>
-      <c r="I22" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>8.5</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="K22" s="9" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>F02</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" t="s">
-        <v>347</v>
-      </c>
-      <c r="D23" t="s">
-        <v>224</v>
-      </c>
-      <c r="E23">
-        <v>30000</v>
-      </c>
-      <c r="F23">
-        <v>102</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="0"/>
-        <v>5.5019635418276236</v>
-      </c>
-      <c r="H23" s="2" cm="1">
-        <f t="array" ref="H23">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.98146779035294129</v>
-      </c>
-      <c r="I23" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>8.0185322096470593</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="K23" s="9" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>G02</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" t="s">
-        <v>348</v>
-      </c>
-      <c r="D24" t="s">
-        <v>225</v>
-      </c>
-      <c r="E24">
-        <v>30000</v>
-      </c>
-      <c r="F24">
-        <v>130</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" ref="G24" si="1">F24/((E24*617.96)+36.04) * 1000000</f>
-        <v>7.0123064748783444</v>
-      </c>
-      <c r="H24" s="2" cm="1">
-        <f t="array" ref="H24">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.77007472781538466</v>
-      </c>
-      <c r="I24" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>8.2299252721846159</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K24" s="9" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>H02</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" t="s">
-        <v>349</v>
-      </c>
-      <c r="D25" t="s">
-        <v>226</v>
-      </c>
-      <c r="E25">
-        <v>30000</v>
-      </c>
-      <c r="F25">
-        <v>167</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" ref="G25:G38" si="2">F25/((E25*617.96)+36.04) * 1000000</f>
-        <v>9.0081167792667962</v>
-      </c>
-      <c r="H25" s="2" cm="1">
-        <f t="array" ref="H25">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.59945936895808383</v>
-      </c>
-      <c r="I25" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
-        <v>8.4005406310419168</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="K25" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>A03</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
-      <c r="G26" s="2">
-        <f t="shared" si="2"/>
+      <c r="G26" s="14" cm="1">
+        <f t="array" ref="G26">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F26/((E26*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H26" s="2" cm="1">
-        <f t="array" ref="H26">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H26">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I26" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K26" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2456,20 +2334,20 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
-      <c r="G27" s="2">
-        <f t="shared" si="2"/>
+      <c r="G27" s="14" cm="1">
+        <f t="array" ref="G27">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F27/((E27*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H27" s="2" cm="1">
-        <f t="array" ref="H27">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H27">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K27" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2478,20 +2356,20 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
-      <c r="G28" s="2">
-        <f t="shared" si="2"/>
+      <c r="G28" s="14" cm="1">
+        <f t="array" ref="G28">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F28/((E28*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H28" s="2" cm="1">
-        <f t="array" ref="H28">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H28">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K28" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2500,20 +2378,20 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
-      <c r="G29" s="2">
-        <f t="shared" si="2"/>
+      <c r="G29" s="14" cm="1">
+        <f t="array" ref="G29">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F29/((E29*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H29" s="2" cm="1">
-        <f t="array" ref="H29">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H29">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I29" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K29" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2522,20 +2400,20 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
-      <c r="G30" s="2">
-        <f t="shared" si="2"/>
+      <c r="G30" s="14" cm="1">
+        <f t="array" ref="G30">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F30/((E30*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H30" s="2" cm="1">
-        <f t="array" ref="H30">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H30">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K30" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2544,20 +2422,20 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
-      <c r="G31" s="2">
-        <f t="shared" si="2"/>
+      <c r="G31" s="14" cm="1">
+        <f t="array" ref="G31">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F31/((E31*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H31" s="2" cm="1">
-        <f t="array" ref="H31">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H31">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K31" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2566,20 +2444,20 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
-      <c r="G32" s="2">
-        <f t="shared" si="2"/>
+      <c r="G32" s="14" cm="1">
+        <f t="array" ref="G32">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F32/((E32*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H32" s="2" cm="1">
-        <f t="array" ref="H32">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H32">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K32" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2588,20 +2466,20 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
-      <c r="G33" s="2">
-        <f t="shared" si="2"/>
+      <c r="G33" s="14" cm="1">
+        <f t="array" ref="G33">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F33/((E33*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H33" s="2" cm="1">
-        <f t="array" ref="H33">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H33">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K33" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2610,20 +2488,20 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
-      <c r="G34" s="2">
-        <f t="shared" si="2"/>
+      <c r="G34" s="14" cm="1">
+        <f t="array" ref="G34">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F34/((E34*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H34" s="2" cm="1">
-        <f t="array" ref="H34">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H34">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I34" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K34" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2632,20 +2510,20 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
-      <c r="G35" s="2">
-        <f t="shared" si="2"/>
+      <c r="G35" s="14" cm="1">
+        <f t="array" ref="G35">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F35/((E35*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H35" s="2" cm="1">
-        <f t="array" ref="H35">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H35">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I35" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K35" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2654,20 +2532,20 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
-      <c r="G36" s="2">
-        <f t="shared" si="2"/>
+      <c r="G36" s="14" cm="1">
+        <f t="array" ref="G36">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F36/((E36*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H36" s="2" cm="1">
-        <f t="array" ref="H36">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H36">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="K36" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2676,20 +2554,20 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
-      <c r="G37" s="2">
-        <f t="shared" si="2"/>
+      <c r="G37" s="14" cm="1">
+        <f t="array" ref="G37">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F37/((E37*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H37" s="2" cm="1">
-        <f t="array" ref="H37">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H37">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I37" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="K37" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2698,20 +2576,20 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
-      <c r="G38" s="2">
-        <f t="shared" si="2"/>
+      <c r="G38" s="14" cm="1">
+        <f t="array" ref="G38">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F38/((E38*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H38" s="2" cm="1">
-        <f t="array" ref="H38">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H38">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K38" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2720,20 +2598,20 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
-      <c r="G39" s="2">
-        <f t="shared" ref="G39:G57" si="3">F39/((E39*617.96)+36.04) * 1000000</f>
+      <c r="G39" s="14" cm="1">
+        <f t="array" ref="G39">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F39/((E39*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H39" s="2" cm="1">
-        <f t="array" ref="H39">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H39">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K39" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2742,20 +2620,20 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
-      <c r="G40" s="2">
-        <f t="shared" si="3"/>
+      <c r="G40" s="14" cm="1">
+        <f t="array" ref="G40">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F40/((E40*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H40" s="2" cm="1">
-        <f t="array" ref="H40">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H40">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K40" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2764,20 +2642,20 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
-      <c r="G41" s="2">
-        <f t="shared" si="3"/>
+      <c r="G41" s="14" cm="1">
+        <f t="array" ref="G41">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F41/((E41*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H41" s="2" cm="1">
-        <f t="array" ref="H41">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H41">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I41" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="K41" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2786,20 +2664,20 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
-      <c r="G42" s="2">
-        <f t="shared" si="3"/>
+      <c r="G42" s="14" cm="1">
+        <f t="array" ref="G42">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F42/((E42*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H42" s="2" cm="1">
-        <f t="array" ref="H42">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H42">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="K42" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2808,20 +2686,20 @@
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
-      <c r="G43" s="2">
-        <f t="shared" si="3"/>
+      <c r="G43" s="14" cm="1">
+        <f t="array" ref="G43">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F43/((E43*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H43" s="2" cm="1">
-        <f t="array" ref="H43">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H43">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K43" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2830,20 +2708,20 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
-      <c r="G44" s="2">
-        <f t="shared" si="3"/>
+      <c r="G44" s="14" cm="1">
+        <f t="array" ref="G44">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F44/((E44*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H44" s="2" cm="1">
-        <f t="array" ref="H44">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H44">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="K44" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2852,20 +2730,20 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
-      <c r="G45" s="2">
-        <f t="shared" si="3"/>
+      <c r="G45" s="14" cm="1">
+        <f t="array" ref="G45">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F45/((E45*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H45" s="2" cm="1">
-        <f t="array" ref="H45">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H45">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="K45" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2874,20 +2752,20 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
-      <c r="G46" s="2">
-        <f t="shared" si="3"/>
+      <c r="G46" s="14" cm="1">
+        <f t="array" ref="G46">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F46/((E46*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H46" s="2" cm="1">
-        <f t="array" ref="H46">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H46">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I46" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K46" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2896,20 +2774,20 @@
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
-      <c r="G47" s="2">
-        <f t="shared" si="3"/>
+      <c r="G47" s="14" cm="1">
+        <f t="array" ref="G47">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F47/((E47*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H47" s="2" cm="1">
-        <f t="array" ref="H47">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H47">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="K47" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2918,20 +2796,20 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
-      <c r="G48" s="2">
-        <f t="shared" si="3"/>
+      <c r="G48" s="14" cm="1">
+        <f t="array" ref="G48">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F48/((E48*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H48" s="2" cm="1">
-        <f t="array" ref="H48">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H48">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I48" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K48" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2940,20 +2818,20 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
-      <c r="G49" s="2">
-        <f t="shared" si="3"/>
+      <c r="G49" s="14" cm="1">
+        <f t="array" ref="G49">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F49/((E49*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H49" s="2" cm="1">
-        <f t="array" ref="H49">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H49">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I49" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="K49" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2962,20 +2840,20 @@
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
-      <c r="G50" s="2">
-        <f t="shared" si="3"/>
+      <c r="G50" s="14" cm="1">
+        <f t="array" ref="G50">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F50/((E50*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H50" s="2" cm="1">
-        <f t="array" ref="H50">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H50">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I50" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="K50" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2984,20 +2862,20 @@
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
-      <c r="G51" s="2">
-        <f t="shared" si="3"/>
+      <c r="G51" s="14" cm="1">
+        <f t="array" ref="G51">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F51/((E51*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H51" s="2" cm="1">
-        <f t="array" ref="H51">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H51">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I51" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="K51" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3006,20 +2884,20 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
-      <c r="G52" s="2">
-        <f t="shared" si="3"/>
+      <c r="G52" s="14" cm="1">
+        <f t="array" ref="G52">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F52/((E52*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H52" s="2" cm="1">
-        <f t="array" ref="H52">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H52">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I52" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="K52" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3028,20 +2906,20 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
-      <c r="G53" s="2">
-        <f t="shared" si="3"/>
+      <c r="G53" s="14" cm="1">
+        <f t="array" ref="G53">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F53/((E53*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H53" s="2" cm="1">
-        <f t="array" ref="H53">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H53">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I53" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K53" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3050,20 +2928,20 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
-      <c r="G54" s="2">
-        <f t="shared" si="3"/>
+      <c r="G54" s="14" cm="1">
+        <f t="array" ref="G54">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F54/((E54*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H54" s="2" cm="1">
-        <f t="array" ref="H54">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H54">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I54" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K54" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3072,20 +2950,20 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
-      <c r="G55" s="2">
-        <f t="shared" si="3"/>
+      <c r="G55" s="14" cm="1">
+        <f t="array" ref="G55">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F55/((E55*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H55" s="2" cm="1">
-        <f t="array" ref="H55">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H55">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I55" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="K55" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3094,20 +2972,20 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
-      <c r="G56" s="2">
-        <f t="shared" si="3"/>
+      <c r="G56" s="14" cm="1">
+        <f t="array" ref="G56">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F56/((E56*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H56" s="2" cm="1">
-        <f t="array" ref="H56">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H56">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I56" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K56" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3116,20 +2994,20 @@
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
-      <c r="G57" s="2">
-        <f t="shared" si="3"/>
+      <c r="G57" s="14" cm="1">
+        <f t="array" ref="G57">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F57/((E57*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H57" s="2" cm="1">
-        <f t="array" ref="H57">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H57">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I57" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="K57" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3138,20 +3016,20 @@
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
-      <c r="G58" s="2">
-        <f t="shared" ref="G58:G89" si="4">F58/((E58*617.96)+36.04) * 1000000</f>
+      <c r="G58" s="14" cm="1">
+        <f t="array" ref="G58">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F58/((E58*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H58" s="2" cm="1">
-        <f t="array" ref="H58">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H58">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I58" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="K58" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3160,20 +3038,20 @@
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
-      <c r="G59" s="2">
-        <f t="shared" si="4"/>
+      <c r="G59" s="14" cm="1">
+        <f t="array" ref="G59">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F59/((E59*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H59" s="2" cm="1">
-        <f t="array" ref="H59">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H59">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I59" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K59" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3182,20 +3060,20 @@
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
-      <c r="G60" s="2">
-        <f t="shared" si="4"/>
+      <c r="G60" s="14" cm="1">
+        <f t="array" ref="G60">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F60/((E60*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H60" s="2" cm="1">
-        <f t="array" ref="H60">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H60">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I60" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K60" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3204,20 +3082,20 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
-      <c r="G61" s="2">
-        <f t="shared" si="4"/>
+      <c r="G61" s="14" cm="1">
+        <f t="array" ref="G61">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F61/((E61*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H61" s="2" cm="1">
-        <f t="array" ref="H61">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H61">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I61" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="K61" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3226,20 +3104,20 @@
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
-      <c r="G62" s="2">
-        <f t="shared" si="4"/>
+      <c r="G62" s="14" cm="1">
+        <f t="array" ref="G62">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F62/((E62*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H62" s="2" cm="1">
-        <f t="array" ref="H62">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H62">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I62" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="K62" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3248,20 +3126,20 @@
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
-      <c r="G63" s="2">
-        <f t="shared" si="4"/>
+      <c r="G63" s="14" cm="1">
+        <f t="array" ref="G63">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F63/((E63*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H63" s="2" cm="1">
-        <f t="array" ref="H63">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H63">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I63" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K63" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3270,20 +3148,20 @@
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
-      <c r="G64" s="2">
-        <f t="shared" si="4"/>
+      <c r="G64" s="14" cm="1">
+        <f t="array" ref="G64">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F64/((E64*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H64" s="2" cm="1">
-        <f t="array" ref="H64">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H64">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I64" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K64" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3292,20 +3170,20 @@
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
-      <c r="G65" s="2">
-        <f t="shared" si="4"/>
+      <c r="G65" s="14" cm="1">
+        <f t="array" ref="G65">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F65/((E65*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H65" s="2" cm="1">
-        <f t="array" ref="H65">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H65">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I65" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="K65" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3314,20 +3192,20 @@
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
-      <c r="G66" s="2">
-        <f t="shared" si="4"/>
+      <c r="G66" s="14" cm="1">
+        <f t="array" ref="G66">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F66/((E66*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H66" s="2" cm="1">
-        <f t="array" ref="H66">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H66">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I66" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="K66" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3336,20 +3214,20 @@
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
-      <c r="G67" s="2">
-        <f t="shared" si="4"/>
+      <c r="G67" s="14" cm="1">
+        <f t="array" ref="G67">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F67/((E67*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H67" s="2" cm="1">
-        <f t="array" ref="H67">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H67">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I67" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="K67" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3358,20 +3236,20 @@
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
-      <c r="G68" s="2">
-        <f t="shared" si="4"/>
+      <c r="G68" s="14" cm="1">
+        <f t="array" ref="G68">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F68/((E68*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H68" s="2" cm="1">
-        <f t="array" ref="H68">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H68">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I68" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="K68" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3380,20 +3258,20 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
-      <c r="G69" s="2">
-        <f t="shared" si="4"/>
+      <c r="G69" s="14" cm="1">
+        <f t="array" ref="G69">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F69/((E69*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H69" s="2" cm="1">
-        <f t="array" ref="H69">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H69">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I69" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K69" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3402,20 +3280,20 @@
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
-      <c r="G70" s="2">
-        <f t="shared" si="4"/>
+      <c r="G70" s="14" cm="1">
+        <f t="array" ref="G70">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F70/((E70*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H70" s="2" cm="1">
-        <f t="array" ref="H70">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H70">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I70" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K70" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3424,20 +3302,20 @@
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
-      <c r="G71" s="2">
-        <f t="shared" si="4"/>
+      <c r="G71" s="14" cm="1">
+        <f t="array" ref="G71">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F71/((E71*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H71" s="2" cm="1">
-        <f t="array" ref="H71">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H71">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I71" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="K71" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3446,20 +3324,20 @@
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
-      <c r="G72" s="2">
-        <f t="shared" si="4"/>
+      <c r="G72" s="14" cm="1">
+        <f t="array" ref="G72">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F72/((E72*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H72" s="2" cm="1">
-        <f t="array" ref="H72">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H72">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I72" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="K72" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3468,20 +3346,20 @@
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
-      <c r="G73" s="2">
-        <f t="shared" si="4"/>
+      <c r="G73" s="14" cm="1">
+        <f t="array" ref="G73">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F73/((E73*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H73" s="2" cm="1">
-        <f t="array" ref="H73">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H73">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I73" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="K73" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3490,20 +3368,20 @@
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
-      <c r="G74" s="2">
-        <f t="shared" si="4"/>
+      <c r="G74" s="14" cm="1">
+        <f t="array" ref="G74">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F74/((E74*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H74" s="2" cm="1">
-        <f t="array" ref="H74">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H74">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I74" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="K74" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3512,20 +3390,20 @@
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
-      <c r="G75" s="2">
-        <f t="shared" si="4"/>
+      <c r="G75" s="14" cm="1">
+        <f t="array" ref="G75">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F75/((E75*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H75" s="2" cm="1">
-        <f t="array" ref="H75">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H75">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I75" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K75" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3534,20 +3412,20 @@
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
-      <c r="G76" s="2">
-        <f t="shared" si="4"/>
+      <c r="G76" s="14" cm="1">
+        <f t="array" ref="G76">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F76/((E76*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H76" s="2" cm="1">
-        <f t="array" ref="H76">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H76">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I76" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K76" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3556,20 +3434,20 @@
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
-      <c r="G77" s="2">
-        <f t="shared" si="4"/>
+      <c r="G77" s="14" cm="1">
+        <f t="array" ref="G77">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F77/((E77*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H77" s="2" cm="1">
-        <f t="array" ref="H77">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H77">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I77" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="K77" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3578,20 +3456,20 @@
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
-      <c r="G78" s="2">
-        <f t="shared" si="4"/>
+      <c r="G78" s="14" cm="1">
+        <f t="array" ref="G78">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F78/((E78*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H78" s="2" cm="1">
-        <f t="array" ref="H78">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H78">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I78" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K78" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3600,20 +3478,20 @@
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
-      <c r="G79" s="2">
-        <f t="shared" si="4"/>
+      <c r="G79" s="14" cm="1">
+        <f t="array" ref="G79">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F79/((E79*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H79" s="2" cm="1">
-        <f t="array" ref="H79">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H79">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I79" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="K79" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3622,20 +3500,20 @@
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
-      <c r="G80" s="2">
-        <f t="shared" si="4"/>
+      <c r="G80" s="14" cm="1">
+        <f t="array" ref="G80">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F80/((E80*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H80" s="2" cm="1">
-        <f t="array" ref="H80">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H80">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I80" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="K80" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3644,20 +3522,20 @@
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
-      <c r="G81" s="2">
-        <f t="shared" si="4"/>
+      <c r="G81" s="14" cm="1">
+        <f t="array" ref="G81">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F81/((E81*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H81" s="2" cm="1">
-        <f t="array" ref="H81">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H81">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I81" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K81" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3666,20 +3544,20 @@
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
-      <c r="G82" s="2">
-        <f t="shared" si="4"/>
+      <c r="G82" s="14" cm="1">
+        <f t="array" ref="G82">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F82/((E82*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H82" s="2" cm="1">
-        <f t="array" ref="H82">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H82">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I82" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K82" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3688,20 +3566,20 @@
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
-      <c r="G83" s="2">
-        <f t="shared" si="4"/>
+      <c r="G83" s="14" cm="1">
+        <f t="array" ref="G83">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F83/((E83*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H83" s="2" cm="1">
-        <f t="array" ref="H83">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H83">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I83" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K83" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3710,20 +3588,20 @@
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
-      <c r="G84" s="2">
-        <f t="shared" si="4"/>
+      <c r="G84" s="14" cm="1">
+        <f t="array" ref="G84">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F84/((E84*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H84" s="2" cm="1">
-        <f t="array" ref="H84">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H84">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I84" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K84" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3732,20 +3610,20 @@
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
-      <c r="G85" s="2">
-        <f t="shared" si="4"/>
+      <c r="G85" s="14" cm="1">
+        <f t="array" ref="G85">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F85/((E85*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H85" s="2" cm="1">
-        <f t="array" ref="H85">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H85">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I85" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="K85" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3754,20 +3632,20 @@
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
-      <c r="G86" s="2">
-        <f t="shared" si="4"/>
+      <c r="G86" s="14" cm="1">
+        <f t="array" ref="G86">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F86/((E86*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H86" s="2" cm="1">
-        <f t="array" ref="H86">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H86">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I86" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K86" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3776,20 +3654,20 @@
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
-      <c r="G87" s="2">
-        <f t="shared" si="4"/>
+      <c r="G87" s="14" cm="1">
+        <f t="array" ref="G87">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F87/((E87*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H87" s="2" cm="1">
-        <f t="array" ref="H87">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H87">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I87" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K87" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3798,20 +3676,20 @@
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
-      <c r="G88" s="2">
-        <f t="shared" si="4"/>
+      <c r="G88" s="14" cm="1">
+        <f t="array" ref="G88">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F88/((E88*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H88" s="2" cm="1">
-        <f t="array" ref="H88">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H88">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I88" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K88" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3820,20 +3698,20 @@
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
-      <c r="G89" s="2">
-        <f t="shared" si="4"/>
+      <c r="G89" s="14" cm="1">
+        <f t="array" ref="G89">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F89/((E89*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H89" s="2" cm="1">
-        <f t="array" ref="H89">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H89">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I89" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="K89" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3842,20 +3720,20 @@
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
-      <c r="G90" s="2">
-        <f t="shared" ref="G90:G104" si="5">F90/((E90*617.96)+36.04) * 1000000</f>
+      <c r="G90" s="14" cm="1">
+        <f t="array" ref="G90">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F90/((E90*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H90" s="2" cm="1">
-        <f t="array" ref="H90">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H90">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I90" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K90" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3864,20 +3742,20 @@
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
-      <c r="G91" s="2">
-        <f t="shared" si="5"/>
+      <c r="G91" s="14" cm="1">
+        <f t="array" ref="G91">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F91/((E91*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H91" s="2" cm="1">
-        <f t="array" ref="H91">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H91">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I91" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K91" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3886,20 +3764,20 @@
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
-      <c r="G92" s="2">
-        <f t="shared" si="5"/>
+      <c r="G92" s="14" cm="1">
+        <f t="array" ref="G92">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F92/((E92*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H92" s="2" cm="1">
-        <f t="array" ref="H92">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H92">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I92" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K92" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3908,20 +3786,20 @@
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="2"/>
-      <c r="G93" s="2">
-        <f t="shared" si="5"/>
+      <c r="G93" s="14" cm="1">
+        <f t="array" ref="G93">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F93/((E93*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H93" s="2" cm="1">
-        <f t="array" ref="H93">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H93">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I93" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="K93" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3930,20 +3808,20 @@
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="2"/>
-      <c r="G94" s="2">
-        <f t="shared" si="5"/>
+      <c r="G94" s="14" cm="1">
+        <f t="array" ref="G94">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F94/((E94*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H94" s="2" cm="1">
-        <f t="array" ref="H94">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H94">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I94" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="K94" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3952,20 +3830,20 @@
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
-      <c r="G95" s="2">
-        <f t="shared" si="5"/>
+      <c r="G95" s="14" cm="1">
+        <f t="array" ref="G95">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F95/((E95*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H95" s="2" cm="1">
-        <f t="array" ref="H95">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H95">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I95" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="K95" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3974,20 +3852,20 @@
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="2"/>
-      <c r="G96" s="2">
-        <f t="shared" si="5"/>
+      <c r="G96" s="14" cm="1">
+        <f t="array" ref="G96">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F96/((E96*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H96" s="2" cm="1">
-        <f t="array" ref="H96">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H96">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I96" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="K96" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3996,20 +3874,20 @@
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="2"/>
-      <c r="G97" s="2">
-        <f t="shared" si="5"/>
+      <c r="G97" s="14" cm="1">
+        <f t="array" ref="G97">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F97/((E97*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H97" s="2" cm="1">
-        <f t="array" ref="H97">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H97">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I97" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K97" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -4018,20 +3896,20 @@
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
-      <c r="G98" s="2">
-        <f t="shared" si="5"/>
+      <c r="G98" s="14" cm="1">
+        <f t="array" ref="G98">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F98/((E98*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H98" s="2" cm="1">
-        <f t="array" ref="H98">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H98">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I98" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="K98" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -4040,20 +3918,20 @@
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
-      <c r="G99" s="2">
-        <f t="shared" si="5"/>
+      <c r="G99" s="14" cm="1">
+        <f t="array" ref="G99">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F99/((E99*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H99" s="2" cm="1">
-        <f t="array" ref="H99">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H99">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I99" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K99" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -4062,20 +3940,20 @@
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
-      <c r="G100" s="2">
-        <f t="shared" si="5"/>
+      <c r="G100" s="14" cm="1">
+        <f t="array" ref="G100">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F100/((E100*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H100" s="2" cm="1">
-        <f t="array" ref="H100">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H100">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I100" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K100" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -4084,20 +3962,20 @@
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
-      <c r="G101" s="2">
-        <f t="shared" si="5"/>
+      <c r="G101" s="14" cm="1">
+        <f t="array" ref="G101">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F101/((E101*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H101" s="2" cm="1">
-        <f t="array" ref="H101">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H101">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I101" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K101" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -4106,20 +3984,20 @@
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
-      <c r="G102" s="2">
-        <f t="shared" si="5"/>
+      <c r="G102" s="14" cm="1">
+        <f t="array" ref="G102">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F102/((E102*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H102" s="2" cm="1">
-        <f t="array" ref="H102">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H102">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I102" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K102" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -4128,20 +4006,20 @@
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
-      <c r="G103" s="2">
-        <f t="shared" si="5"/>
+      <c r="G103" s="14" cm="1">
+        <f t="array" ref="G103">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F103/((E103*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H103" s="2" cm="1">
-        <f t="array" ref="H103">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H103">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I103" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="K103" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -4150,20 +4028,20 @@
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
-      <c r="G104" s="2">
-        <f t="shared" si="5"/>
+      <c r="G104" s="14" cm="1">
+        <f t="array" ref="G104">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F104/((E104*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="H104" s="2" cm="1">
-        <f t="array" ref="H104">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;9,9,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H104">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
         <v>0</v>
       </c>
       <c r="I104" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,9-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
         <v>0</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="K104" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -4211,7 +4089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D898479-BFF5-2546-B83B-02B04494078A}">
   <dimension ref="B2:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -4219,1365 +4097,1365 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D57" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D59" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D60" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D62" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D63" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D64" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D67" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D68" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D69" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D70" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D71" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D73" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D75" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D76" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D77" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D78" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C79" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D79" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C80" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D80" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C81" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D81" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C82" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D82" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C83" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D83" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C84" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D84" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C85" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D85" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C86" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D86" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D87" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D88" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D89" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D90" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D91" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D92" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D93" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C94" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D94" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C95" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D95" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C97" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D97" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C98" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D98" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C99" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D99" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D100" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5612,31 +5490,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>307</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -5645,29 +5523,29 @@
         <v>A01</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C2" s="9">
         <f>main!H9</f>
-        <v>7.1506939011428576</v>
+        <v>2</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>IF(C2=0, "", "A01")</f>
         <v>A01</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F2" s="9">
         <f>main!I9</f>
-        <v>1.8493060988571424</v>
+        <v>8</v>
       </c>
       <c r="G2" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D9,Table2[name],Table2[well],"")</f>
         <v>A01</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I2" s="8">
         <f>IF(C2=0,0,1)</f>
@@ -5680,29 +5558,29 @@
         <v>B01</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C3" s="9">
         <f>main!H10</f>
-        <v>1.2359224026666669</v>
+        <v>10</v>
       </c>
       <c r="D3" s="8" t="str">
         <f t="shared" ref="D3:D66" si="0">IF(C3=0, "", "A01")</f>
         <v>A01</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F3" s="9">
         <f>main!I10</f>
-        <v>7.7640775973333334</v>
+        <v>0</v>
       </c>
       <c r="G3" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D10,Table2[name],Table2[well],"")</f>
         <v>B01</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I66" si="1">IF(C3=0,0,1)</f>
@@ -5715,29 +5593,29 @@
         <v>C01</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C4" s="9">
         <f>main!H11</f>
-        <v>2.5027428654000001</v>
+        <v>1</v>
       </c>
       <c r="D4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>A01</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F4" s="9">
         <f>main!I11</f>
-        <v>6.4972571345999999</v>
+        <v>9</v>
       </c>
       <c r="G4" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D11,Table2[name],Table2[well],"")</f>
         <v>C01</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="1"/>
@@ -5747,32 +5625,32 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>TEXT(main!B12, "")</f>
-        <v>D01</v>
+        <v>G01</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C5" s="9">
         <f>main!H12</f>
-        <v>4.5504415734545454</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>A01</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F5" s="9">
         <f>main!I12</f>
-        <v>4.4495584265454546</v>
+        <v>9.5</v>
       </c>
       <c r="G5" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D12,Table2[name],Table2[well],"")</f>
         <v>D01</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" si="1"/>
@@ -5782,456 +5660,456 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="str">
         <f>TEXT(main!B13, "")</f>
-        <v>E01</v>
+        <v/>
       </c>
       <c r="B6" s="8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C6" s="9">
         <f>main!H13</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E6" s="8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F6" s="9">
         <f>main!I13</f>
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="G6" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D13,Table2[name],Table2[well],"")</f>
-        <v>E01</v>
+        <v/>
       </c>
       <c r="H6" s="8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I6" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="str">
         <f>TEXT(main!B14, "")</f>
-        <v>F01</v>
+        <v/>
       </c>
       <c r="B7" s="8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C7" s="9">
         <f>main!H14</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E7" s="8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F7" s="9">
         <f>main!I14</f>
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D14,Table2[name],Table2[well],"")</f>
-        <v>F01</v>
+        <v/>
       </c>
       <c r="H7" s="8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="str">
         <f>TEXT(main!B15, "")</f>
-        <v>G01</v>
+        <v/>
       </c>
       <c r="B8" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C8" s="9">
         <f>main!H15</f>
-        <v>1.6146728163870969</v>
+        <v>0</v>
       </c>
       <c r="D8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E8" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F8" s="9">
         <f>main!I15</f>
-        <v>7.3853271836129029</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D15,Table2[name],Table2[well],"")</f>
-        <v>G01</v>
+        <v/>
       </c>
       <c r="H8" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="str">
         <f>TEXT(main!B16, "")</f>
-        <v>H01</v>
+        <v/>
       </c>
       <c r="B9" s="8" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C9" s="9">
         <f>main!H16</f>
-        <v>1.33479619488</v>
+        <v>0</v>
       </c>
       <c r="D9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E9" s="8" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F9" s="9">
         <f>main!I16</f>
-        <v>7.66520380512</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D16,Table2[name],Table2[well],"")</f>
-        <v>H01</v>
+        <v/>
       </c>
       <c r="H9" s="8" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="str">
         <f>TEXT(main!B17, "")</f>
-        <v>A02</v>
+        <v/>
       </c>
       <c r="B10" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C10" s="9">
         <f>main!H17</f>
-        <v>1.2208501782439025</v>
+        <v>0</v>
       </c>
       <c r="D10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E10" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F10" s="9">
         <f>main!I17</f>
-        <v>7.7791498217560973</v>
+        <v>0</v>
       </c>
       <c r="G10" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D17,Table2[name],Table2[well],"")</f>
-        <v>A02</v>
+        <v/>
       </c>
       <c r="H10" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="str">
         <f>TEXT(main!B18, "")</f>
-        <v>B02</v>
+        <v/>
       </c>
       <c r="B11" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C11" s="9">
         <f>main!H18</f>
-        <v>2.5027428654000001</v>
+        <v>0</v>
       </c>
       <c r="D11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E11" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F11" s="9">
         <f>main!I18</f>
-        <v>6.4972571345999999</v>
+        <v>0</v>
       </c>
       <c r="G11" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D18,Table2[name],Table2[well],"")</f>
-        <v>B02</v>
+        <v/>
       </c>
       <c r="H11" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="str">
         <f>TEXT(main!B19, "")</f>
-        <v>C02</v>
+        <v/>
       </c>
       <c r="B12" s="8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C12" s="9">
         <f>main!H19</f>
-        <v>0.82735301335537192</v>
+        <v>0</v>
       </c>
       <c r="D12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E12" s="8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F12" s="9">
         <f>main!I19</f>
-        <v>8.1726469866446276</v>
+        <v>0</v>
       </c>
       <c r="G12" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D19,Table2[name],Table2[well],"")</f>
-        <v>C02</v>
+        <v/>
       </c>
       <c r="H12" s="8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="str">
         <f>TEXT(main!B20, "")</f>
-        <v>D02</v>
+        <v/>
       </c>
       <c r="B13" s="8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C13" s="9">
         <f>main!H20</f>
-        <v>0.70999797600000003</v>
+        <v>0</v>
       </c>
       <c r="D13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E13" s="8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F13" s="9">
         <f>main!I20</f>
-        <v>8.2900020239999996</v>
+        <v>0</v>
       </c>
       <c r="G13" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D20,Table2[name],Table2[well],"")</f>
-        <v>D02</v>
+        <v/>
       </c>
       <c r="H13" s="8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="str">
         <f>TEXT(main!B21, "")</f>
-        <v>E02</v>
+        <v/>
       </c>
       <c r="B14" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C14" s="9">
         <f>main!H21</f>
-        <v>0.5160294567835052</v>
+        <v>0</v>
       </c>
       <c r="D14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E14" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F14" s="9">
         <f>main!I21</f>
-        <v>8.4839705432164951</v>
+        <v>0</v>
       </c>
       <c r="G14" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D21,Table2[name],Table2[well],"")</f>
-        <v>E02</v>
+        <v/>
       </c>
       <c r="H14" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="str">
         <f>TEXT(main!B22, "")</f>
-        <v>F02</v>
+        <v/>
       </c>
       <c r="B15" s="8" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C15" s="9">
         <f>main!H22</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E15" s="8" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F15" s="9">
         <f>main!I22</f>
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D22,Table2[name],Table2[well],"")</f>
-        <v>F02</v>
+        <v/>
       </c>
       <c r="H15" s="8" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="str">
         <f>TEXT(main!B23, "")</f>
-        <v>G02</v>
+        <v/>
       </c>
       <c r="B16" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C16" s="9">
         <f>main!H23</f>
-        <v>0.98146779035294129</v>
+        <v>0</v>
       </c>
       <c r="D16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E16" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F16" s="9">
         <f>main!I23</f>
-        <v>8.0185322096470593</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D23,Table2[name],Table2[well],"")</f>
-        <v>G02</v>
+        <v/>
       </c>
       <c r="H16" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="str">
         <f>TEXT(main!B24, "")</f>
-        <v>H02</v>
+        <v/>
       </c>
       <c r="B17" s="8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C17" s="9">
         <f>main!H24</f>
-        <v>0.77007472781538466</v>
+        <v>0</v>
       </c>
       <c r="D17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E17" s="8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F17" s="9">
         <f>main!I24</f>
-        <v>8.2299252721846159</v>
+        <v>0</v>
       </c>
       <c r="G17" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D24,Table2[name],Table2[well],"")</f>
-        <v>H02</v>
+        <v/>
       </c>
       <c r="H17" s="8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="str">
         <f>TEXT(main!B25, "")</f>
-        <v>A03</v>
+        <v/>
       </c>
       <c r="B18" s="8" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C18" s="9">
         <f>main!H25</f>
-        <v>0.59945936895808383</v>
+        <v>0</v>
       </c>
       <c r="D18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E18" s="8" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F18" s="9">
         <f>main!I25</f>
-        <v>8.4005406310419168</v>
+        <v>0</v>
       </c>
       <c r="G18" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D25,Table2[name],Table2[well],"")</f>
-        <v>A03</v>
+        <v/>
       </c>
       <c r="H18" s="8" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -6240,7 +6118,7 @@
         <v/>
       </c>
       <c r="B19" s="8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C19" s="9">
         <f>main!H26</f>
@@ -6251,7 +6129,7 @@
         <v/>
       </c>
       <c r="E19" s="8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F19" s="9">
         <f>main!I26</f>
@@ -6262,7 +6140,7 @@
         <v/>
       </c>
       <c r="H19" s="8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" si="1"/>
@@ -6275,7 +6153,7 @@
         <v/>
       </c>
       <c r="B20" s="8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C20" s="9">
         <f>main!H27</f>
@@ -6286,7 +6164,7 @@
         <v/>
       </c>
       <c r="E20" s="8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F20" s="9">
         <f>main!I27</f>
@@ -6297,7 +6175,7 @@
         <v/>
       </c>
       <c r="H20" s="8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" si="1"/>
@@ -6310,7 +6188,7 @@
         <v/>
       </c>
       <c r="B21" s="8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C21" s="9">
         <f>main!H28</f>
@@ -6321,7 +6199,7 @@
         <v/>
       </c>
       <c r="E21" s="8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F21" s="9">
         <f>main!I28</f>
@@ -6332,7 +6210,7 @@
         <v/>
       </c>
       <c r="H21" s="8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" si="1"/>
@@ -6345,7 +6223,7 @@
         <v/>
       </c>
       <c r="B22" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C22" s="9">
         <f>main!H29</f>
@@ -6356,7 +6234,7 @@
         <v/>
       </c>
       <c r="E22" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F22" s="9">
         <f>main!I29</f>
@@ -6367,7 +6245,7 @@
         <v/>
       </c>
       <c r="H22" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="1"/>
@@ -6380,7 +6258,7 @@
         <v/>
       </c>
       <c r="B23" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C23" s="9">
         <f>main!H30</f>
@@ -6391,7 +6269,7 @@
         <v/>
       </c>
       <c r="E23" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F23" s="9">
         <f>main!I30</f>
@@ -6402,7 +6280,7 @@
         <v/>
       </c>
       <c r="H23" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="1"/>
@@ -6415,7 +6293,7 @@
         <v/>
       </c>
       <c r="B24" s="8" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C24" s="9">
         <f>main!H31</f>
@@ -6426,7 +6304,7 @@
         <v/>
       </c>
       <c r="E24" s="8" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F24" s="9">
         <f>main!I31</f>
@@ -6437,7 +6315,7 @@
         <v/>
       </c>
       <c r="H24" s="8" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" si="1"/>
@@ -6450,7 +6328,7 @@
         <v/>
       </c>
       <c r="B25" s="8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C25" s="9">
         <f>main!H32</f>
@@ -6461,7 +6339,7 @@
         <v/>
       </c>
       <c r="E25" s="8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F25" s="9">
         <f>main!I32</f>
@@ -6472,7 +6350,7 @@
         <v/>
       </c>
       <c r="H25" s="8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" si="1"/>
@@ -6485,7 +6363,7 @@
         <v/>
       </c>
       <c r="B26" s="8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C26" s="9">
         <f>main!H33</f>
@@ -6496,7 +6374,7 @@
         <v/>
       </c>
       <c r="E26" s="8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F26" s="9">
         <f>main!I33</f>
@@ -6507,7 +6385,7 @@
         <v/>
       </c>
       <c r="H26" s="8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" si="1"/>
@@ -6520,7 +6398,7 @@
         <v/>
       </c>
       <c r="B27" s="8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C27" s="9">
         <f>main!H34</f>
@@ -6531,7 +6409,7 @@
         <v/>
       </c>
       <c r="E27" s="8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F27" s="9">
         <f>main!I34</f>
@@ -6542,7 +6420,7 @@
         <v/>
       </c>
       <c r="H27" s="8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" si="1"/>
@@ -6555,7 +6433,7 @@
         <v/>
       </c>
       <c r="B28" s="8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C28" s="9">
         <f>main!H35</f>
@@ -6566,7 +6444,7 @@
         <v/>
       </c>
       <c r="E28" s="8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F28" s="9">
         <f>main!I35</f>
@@ -6577,7 +6455,7 @@
         <v/>
       </c>
       <c r="H28" s="8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" si="1"/>
@@ -6590,7 +6468,7 @@
         <v/>
       </c>
       <c r="B29" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C29" s="9">
         <f>main!H36</f>
@@ -6601,7 +6479,7 @@
         <v/>
       </c>
       <c r="E29" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F29" s="9">
         <f>main!I36</f>
@@ -6612,7 +6490,7 @@
         <v/>
       </c>
       <c r="H29" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" si="1"/>
@@ -6625,7 +6503,7 @@
         <v/>
       </c>
       <c r="B30" s="8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C30" s="9">
         <f>main!H37</f>
@@ -6636,7 +6514,7 @@
         <v/>
       </c>
       <c r="E30" s="8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F30" s="9">
         <f>main!I37</f>
@@ -6647,7 +6525,7 @@
         <v/>
       </c>
       <c r="H30" s="8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" si="1"/>
@@ -6660,7 +6538,7 @@
         <v/>
       </c>
       <c r="B31" s="8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C31" s="9">
         <f>main!H38</f>
@@ -6671,7 +6549,7 @@
         <v/>
       </c>
       <c r="E31" s="8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F31" s="9">
         <f>main!I38</f>
@@ -6682,7 +6560,7 @@
         <v/>
       </c>
       <c r="H31" s="8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" si="1"/>
@@ -6695,7 +6573,7 @@
         <v/>
       </c>
       <c r="B32" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C32" s="9">
         <f>main!H39</f>
@@ -6706,7 +6584,7 @@
         <v/>
       </c>
       <c r="E32" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F32" s="9">
         <f>main!I39</f>
@@ -6717,7 +6595,7 @@
         <v/>
       </c>
       <c r="H32" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" si="1"/>
@@ -6730,7 +6608,7 @@
         <v/>
       </c>
       <c r="B33" s="8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C33" s="9">
         <f>main!H40</f>
@@ -6741,7 +6619,7 @@
         <v/>
       </c>
       <c r="E33" s="8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F33" s="9">
         <f>main!I40</f>
@@ -6752,7 +6630,7 @@
         <v/>
       </c>
       <c r="H33" s="8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" si="1"/>
@@ -6765,7 +6643,7 @@
         <v/>
       </c>
       <c r="B34" s="8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C34" s="9">
         <f>main!H41</f>
@@ -6776,7 +6654,7 @@
         <v/>
       </c>
       <c r="E34" s="8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F34" s="9">
         <f>main!I41</f>
@@ -6787,7 +6665,7 @@
         <v/>
       </c>
       <c r="H34" s="8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I34" s="8">
         <f t="shared" si="1"/>
@@ -6800,7 +6678,7 @@
         <v/>
       </c>
       <c r="B35" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C35" s="9">
         <f>main!H42</f>
@@ -6811,7 +6689,7 @@
         <v/>
       </c>
       <c r="E35" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F35" s="9">
         <f>main!I42</f>
@@ -6822,7 +6700,7 @@
         <v/>
       </c>
       <c r="H35" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" si="1"/>
@@ -6835,7 +6713,7 @@
         <v/>
       </c>
       <c r="B36" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C36" s="9">
         <f>main!H43</f>
@@ -6846,7 +6724,7 @@
         <v/>
       </c>
       <c r="E36" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F36" s="9">
         <f>main!I43</f>
@@ -6857,7 +6735,7 @@
         <v/>
       </c>
       <c r="H36" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" si="1"/>
@@ -6870,7 +6748,7 @@
         <v/>
       </c>
       <c r="B37" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C37" s="9">
         <f>main!H44</f>
@@ -6881,7 +6759,7 @@
         <v/>
       </c>
       <c r="E37" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F37" s="9">
         <f>main!I44</f>
@@ -6892,7 +6770,7 @@
         <v/>
       </c>
       <c r="H37" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" si="1"/>
@@ -6905,7 +6783,7 @@
         <v/>
       </c>
       <c r="B38" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C38" s="9">
         <f>main!H45</f>
@@ -6916,7 +6794,7 @@
         <v/>
       </c>
       <c r="E38" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F38" s="9">
         <f>main!I45</f>
@@ -6927,7 +6805,7 @@
         <v/>
       </c>
       <c r="H38" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" si="1"/>
@@ -6940,7 +6818,7 @@
         <v/>
       </c>
       <c r="B39" s="8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C39" s="9">
         <f>main!H46</f>
@@ -6951,7 +6829,7 @@
         <v/>
       </c>
       <c r="E39" s="8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F39" s="9">
         <f>main!I46</f>
@@ -6962,7 +6840,7 @@
         <v/>
       </c>
       <c r="H39" s="8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" si="1"/>
@@ -6975,7 +6853,7 @@
         <v/>
       </c>
       <c r="B40" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C40" s="9">
         <f>main!H47</f>
@@ -6986,7 +6864,7 @@
         <v/>
       </c>
       <c r="E40" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F40" s="9">
         <f>main!I47</f>
@@ -6997,7 +6875,7 @@
         <v/>
       </c>
       <c r="H40" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I40" s="8">
         <f t="shared" si="1"/>
@@ -7010,7 +6888,7 @@
         <v/>
       </c>
       <c r="B41" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C41" s="9">
         <f>main!H48</f>
@@ -7021,7 +6899,7 @@
         <v/>
       </c>
       <c r="E41" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F41" s="9">
         <f>main!I48</f>
@@ -7032,7 +6910,7 @@
         <v/>
       </c>
       <c r="H41" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I41" s="8">
         <f t="shared" si="1"/>
@@ -7045,7 +6923,7 @@
         <v/>
       </c>
       <c r="B42" s="8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C42" s="9">
         <f>main!H49</f>
@@ -7056,7 +6934,7 @@
         <v/>
       </c>
       <c r="E42" s="8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F42" s="9">
         <f>main!I49</f>
@@ -7067,7 +6945,7 @@
         <v/>
       </c>
       <c r="H42" s="8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I42" s="8">
         <f t="shared" si="1"/>
@@ -7080,7 +6958,7 @@
         <v/>
       </c>
       <c r="B43" s="8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C43" s="9">
         <f>main!H50</f>
@@ -7091,7 +6969,7 @@
         <v/>
       </c>
       <c r="E43" s="8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F43" s="9">
         <f>main!I50</f>
@@ -7102,7 +6980,7 @@
         <v/>
       </c>
       <c r="H43" s="8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" si="1"/>
@@ -7115,7 +6993,7 @@
         <v/>
       </c>
       <c r="B44" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C44" s="9">
         <f>main!H51</f>
@@ -7126,7 +7004,7 @@
         <v/>
       </c>
       <c r="E44" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F44" s="9">
         <f>main!I51</f>
@@ -7137,7 +7015,7 @@
         <v/>
       </c>
       <c r="H44" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I44" s="8">
         <f t="shared" si="1"/>
@@ -7150,7 +7028,7 @@
         <v/>
       </c>
       <c r="B45" s="8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C45" s="9">
         <f>main!H52</f>
@@ -7161,7 +7039,7 @@
         <v/>
       </c>
       <c r="E45" s="8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F45" s="9">
         <f>main!I52</f>
@@ -7172,7 +7050,7 @@
         <v/>
       </c>
       <c r="H45" s="8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I45" s="8">
         <f t="shared" si="1"/>
@@ -7185,7 +7063,7 @@
         <v/>
       </c>
       <c r="B46" s="8" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C46" s="9">
         <f>main!H53</f>
@@ -7196,7 +7074,7 @@
         <v/>
       </c>
       <c r="E46" s="8" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F46" s="9">
         <f>main!I53</f>
@@ -7207,7 +7085,7 @@
         <v/>
       </c>
       <c r="H46" s="8" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I46" s="8">
         <f t="shared" si="1"/>
@@ -7220,7 +7098,7 @@
         <v/>
       </c>
       <c r="B47" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C47" s="9">
         <f>main!H54</f>
@@ -7231,7 +7109,7 @@
         <v/>
       </c>
       <c r="E47" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F47" s="9">
         <f>main!I54</f>
@@ -7242,7 +7120,7 @@
         <v/>
       </c>
       <c r="H47" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I47" s="8">
         <f t="shared" si="1"/>
@@ -7255,7 +7133,7 @@
         <v/>
       </c>
       <c r="B48" s="8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C48" s="9">
         <f>main!H55</f>
@@ -7266,7 +7144,7 @@
         <v/>
       </c>
       <c r="E48" s="8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F48" s="9">
         <f>main!I55</f>
@@ -7277,7 +7155,7 @@
         <v/>
       </c>
       <c r="H48" s="8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I48" s="8">
         <f t="shared" si="1"/>
@@ -7290,7 +7168,7 @@
         <v/>
       </c>
       <c r="B49" s="8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C49" s="9">
         <f>main!H56</f>
@@ -7301,7 +7179,7 @@
         <v/>
       </c>
       <c r="E49" s="8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F49" s="9">
         <f>main!I56</f>
@@ -7312,7 +7190,7 @@
         <v/>
       </c>
       <c r="H49" s="8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I49" s="8">
         <f t="shared" si="1"/>
@@ -7325,7 +7203,7 @@
         <v/>
       </c>
       <c r="B50" s="8" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C50" s="9">
         <f>main!H57</f>
@@ -7336,7 +7214,7 @@
         <v/>
       </c>
       <c r="E50" s="8" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F50" s="9">
         <f>main!I57</f>
@@ -7347,7 +7225,7 @@
         <v/>
       </c>
       <c r="H50" s="8" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I50" s="8">
         <f t="shared" si="1"/>
@@ -7360,7 +7238,7 @@
         <v/>
       </c>
       <c r="B51" s="8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C51" s="9">
         <f>main!H58</f>
@@ -7371,7 +7249,7 @@
         <v/>
       </c>
       <c r="E51" s="8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F51" s="9">
         <f>main!I58</f>
@@ -7382,7 +7260,7 @@
         <v/>
       </c>
       <c r="H51" s="8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I51" s="8">
         <f t="shared" si="1"/>
@@ -7395,7 +7273,7 @@
         <v/>
       </c>
       <c r="B52" s="8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C52" s="9">
         <f>main!H59</f>
@@ -7406,7 +7284,7 @@
         <v/>
       </c>
       <c r="E52" s="8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F52" s="9">
         <f>main!I59</f>
@@ -7417,7 +7295,7 @@
         <v/>
       </c>
       <c r="H52" s="8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I52" s="8">
         <f t="shared" si="1"/>
@@ -7430,7 +7308,7 @@
         <v/>
       </c>
       <c r="B53" s="8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C53" s="9">
         <f>main!H60</f>
@@ -7441,7 +7319,7 @@
         <v/>
       </c>
       <c r="E53" s="8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F53" s="9">
         <f>main!I60</f>
@@ -7452,7 +7330,7 @@
         <v/>
       </c>
       <c r="H53" s="8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I53" s="8">
         <f t="shared" si="1"/>
@@ -7465,7 +7343,7 @@
         <v/>
       </c>
       <c r="B54" s="8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C54" s="9">
         <f>main!H61</f>
@@ -7476,7 +7354,7 @@
         <v/>
       </c>
       <c r="E54" s="8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F54" s="9">
         <f>main!I61</f>
@@ -7487,7 +7365,7 @@
         <v/>
       </c>
       <c r="H54" s="8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I54" s="8">
         <f t="shared" si="1"/>
@@ -7500,7 +7378,7 @@
         <v/>
       </c>
       <c r="B55" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C55" s="9">
         <f>main!H62</f>
@@ -7511,7 +7389,7 @@
         <v/>
       </c>
       <c r="E55" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F55" s="9">
         <f>main!I62</f>
@@ -7522,7 +7400,7 @@
         <v/>
       </c>
       <c r="H55" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I55" s="8">
         <f t="shared" si="1"/>
@@ -7535,7 +7413,7 @@
         <v/>
       </c>
       <c r="B56" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C56" s="9">
         <f>main!H63</f>
@@ -7546,7 +7424,7 @@
         <v/>
       </c>
       <c r="E56" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F56" s="9">
         <f>main!I63</f>
@@ -7557,7 +7435,7 @@
         <v/>
       </c>
       <c r="H56" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I56" s="8">
         <f t="shared" si="1"/>
@@ -7570,7 +7448,7 @@
         <v/>
       </c>
       <c r="B57" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C57" s="9">
         <f>main!H64</f>
@@ -7581,7 +7459,7 @@
         <v/>
       </c>
       <c r="E57" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F57" s="9">
         <f>main!I64</f>
@@ -7592,7 +7470,7 @@
         <v/>
       </c>
       <c r="H57" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="I57" s="8">
         <f t="shared" si="1"/>
@@ -7605,7 +7483,7 @@
         <v/>
       </c>
       <c r="B58" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C58" s="9">
         <f>main!H65</f>
@@ -7616,7 +7494,7 @@
         <v/>
       </c>
       <c r="E58" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F58" s="9">
         <f>main!I65</f>
@@ -7627,7 +7505,7 @@
         <v/>
       </c>
       <c r="H58" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I58" s="8">
         <f t="shared" si="1"/>
@@ -7640,7 +7518,7 @@
         <v/>
       </c>
       <c r="B59" s="8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C59" s="9">
         <f>main!H66</f>
@@ -7651,7 +7529,7 @@
         <v/>
       </c>
       <c r="E59" s="8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F59" s="9">
         <f>main!I66</f>
@@ -7662,7 +7540,7 @@
         <v/>
       </c>
       <c r="H59" s="8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I59" s="8">
         <f t="shared" si="1"/>
@@ -7675,7 +7553,7 @@
         <v/>
       </c>
       <c r="B60" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C60" s="9">
         <f>main!H67</f>
@@ -7686,7 +7564,7 @@
         <v/>
       </c>
       <c r="E60" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F60" s="9">
         <f>main!I67</f>
@@ -7697,7 +7575,7 @@
         <v/>
       </c>
       <c r="H60" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I60" s="8">
         <f t="shared" si="1"/>
@@ -7710,7 +7588,7 @@
         <v/>
       </c>
       <c r="B61" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C61" s="9">
         <f>main!H68</f>
@@ -7721,7 +7599,7 @@
         <v/>
       </c>
       <c r="E61" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F61" s="9">
         <f>main!I68</f>
@@ -7732,7 +7610,7 @@
         <v/>
       </c>
       <c r="H61" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I61" s="8">
         <f t="shared" si="1"/>
@@ -7745,7 +7623,7 @@
         <v/>
       </c>
       <c r="B62" s="8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C62" s="9">
         <f>main!H69</f>
@@ -7756,7 +7634,7 @@
         <v/>
       </c>
       <c r="E62" s="8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F62" s="9">
         <f>main!I69</f>
@@ -7767,7 +7645,7 @@
         <v/>
       </c>
       <c r="H62" s="8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="I62" s="8">
         <f t="shared" si="1"/>
@@ -7780,7 +7658,7 @@
         <v/>
       </c>
       <c r="B63" s="8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C63" s="9">
         <f>main!H70</f>
@@ -7791,7 +7669,7 @@
         <v/>
       </c>
       <c r="E63" s="8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F63" s="9">
         <f>main!I70</f>
@@ -7802,7 +7680,7 @@
         <v/>
       </c>
       <c r="H63" s="8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I63" s="8">
         <f t="shared" si="1"/>
@@ -7815,7 +7693,7 @@
         <v/>
       </c>
       <c r="B64" s="8" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C64" s="9">
         <f>main!H71</f>
@@ -7826,7 +7704,7 @@
         <v/>
       </c>
       <c r="E64" s="8" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F64" s="9">
         <f>main!I71</f>
@@ -7837,7 +7715,7 @@
         <v/>
       </c>
       <c r="H64" s="8" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I64" s="8">
         <f t="shared" si="1"/>
@@ -7850,7 +7728,7 @@
         <v/>
       </c>
       <c r="B65" s="8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C65" s="9">
         <f>main!H72</f>
@@ -7861,7 +7739,7 @@
         <v/>
       </c>
       <c r="E65" s="8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F65" s="9">
         <f>main!I72</f>
@@ -7872,7 +7750,7 @@
         <v/>
       </c>
       <c r="H65" s="8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I65" s="8">
         <f t="shared" si="1"/>
@@ -7885,7 +7763,7 @@
         <v/>
       </c>
       <c r="B66" s="8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C66" s="9">
         <f>main!H73</f>
@@ -7896,7 +7774,7 @@
         <v/>
       </c>
       <c r="E66" s="8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F66" s="9">
         <f>main!I73</f>
@@ -7907,7 +7785,7 @@
         <v/>
       </c>
       <c r="H66" s="8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I66" s="8">
         <f t="shared" si="1"/>
@@ -7920,7 +7798,7 @@
         <v/>
       </c>
       <c r="B67" s="8" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C67" s="9">
         <f>main!H74</f>
@@ -7931,7 +7809,7 @@
         <v/>
       </c>
       <c r="E67" s="8" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F67" s="9">
         <f>main!I74</f>
@@ -7942,7 +7820,7 @@
         <v/>
       </c>
       <c r="H67" s="8" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I67" s="8">
         <f t="shared" ref="I67:I97" si="3">IF(C67=0,0,1)</f>
@@ -7955,7 +7833,7 @@
         <v/>
       </c>
       <c r="B68" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C68" s="9">
         <f>main!H75</f>
@@ -7966,7 +7844,7 @@
         <v/>
       </c>
       <c r="E68" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F68" s="9">
         <f>main!I75</f>
@@ -7977,7 +7855,7 @@
         <v/>
       </c>
       <c r="H68" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="I68" s="8">
         <f t="shared" si="3"/>
@@ -7990,7 +7868,7 @@
         <v/>
       </c>
       <c r="B69" s="8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C69" s="9">
         <f>main!H76</f>
@@ -8001,7 +7879,7 @@
         <v/>
       </c>
       <c r="E69" s="8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F69" s="9">
         <f>main!I76</f>
@@ -8012,7 +7890,7 @@
         <v/>
       </c>
       <c r="H69" s="8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I69" s="8">
         <f t="shared" si="3"/>
@@ -8025,7 +7903,7 @@
         <v/>
       </c>
       <c r="B70" s="8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C70" s="9">
         <f>main!H77</f>
@@ -8036,7 +7914,7 @@
         <v/>
       </c>
       <c r="E70" s="8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F70" s="9">
         <f>main!I77</f>
@@ -8047,7 +7925,7 @@
         <v/>
       </c>
       <c r="H70" s="8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I70" s="8">
         <f t="shared" si="3"/>
@@ -8060,7 +7938,7 @@
         <v/>
       </c>
       <c r="B71" s="8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C71" s="9">
         <f>main!H78</f>
@@ -8071,7 +7949,7 @@
         <v/>
       </c>
       <c r="E71" s="8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F71" s="9">
         <f>main!I78</f>
@@ -8082,7 +7960,7 @@
         <v/>
       </c>
       <c r="H71" s="8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I71" s="8">
         <f t="shared" si="3"/>
@@ -8095,7 +7973,7 @@
         <v/>
       </c>
       <c r="B72" s="8" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C72" s="9">
         <f>main!H79</f>
@@ -8106,7 +7984,7 @@
         <v/>
       </c>
       <c r="E72" s="8" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F72" s="9">
         <f>main!I79</f>
@@ -8117,7 +7995,7 @@
         <v/>
       </c>
       <c r="H72" s="8" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="I72" s="8">
         <f t="shared" si="3"/>
@@ -8130,7 +8008,7 @@
         <v/>
       </c>
       <c r="B73" s="8" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C73" s="9">
         <f>main!H80</f>
@@ -8141,7 +8019,7 @@
         <v/>
       </c>
       <c r="E73" s="8" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F73" s="9">
         <f>main!I80</f>
@@ -8152,7 +8030,7 @@
         <v/>
       </c>
       <c r="H73" s="8" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I73" s="8">
         <f t="shared" si="3"/>
@@ -8165,7 +8043,7 @@
         <v/>
       </c>
       <c r="B74" s="8" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C74" s="9">
         <f>main!H81</f>
@@ -8176,7 +8054,7 @@
         <v/>
       </c>
       <c r="E74" s="8" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F74" s="9">
         <f>main!I81</f>
@@ -8187,7 +8065,7 @@
         <v/>
       </c>
       <c r="H74" s="8" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I74" s="8">
         <f t="shared" si="3"/>
@@ -8200,7 +8078,7 @@
         <v/>
       </c>
       <c r="B75" s="8" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C75" s="9">
         <f>main!H82</f>
@@ -8211,7 +8089,7 @@
         <v/>
       </c>
       <c r="E75" s="8" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F75" s="9">
         <f>main!I82</f>
@@ -8222,7 +8100,7 @@
         <v/>
       </c>
       <c r="H75" s="8" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I75" s="8">
         <f t="shared" si="3"/>
@@ -8235,7 +8113,7 @@
         <v/>
       </c>
       <c r="B76" s="8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C76" s="9">
         <f>main!H83</f>
@@ -8246,7 +8124,7 @@
         <v/>
       </c>
       <c r="E76" s="8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F76" s="9">
         <f>main!I83</f>
@@ -8257,7 +8135,7 @@
         <v/>
       </c>
       <c r="H76" s="8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I76" s="8">
         <f t="shared" si="3"/>
@@ -8270,7 +8148,7 @@
         <v/>
       </c>
       <c r="B77" s="8" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C77" s="9">
         <f>main!H84</f>
@@ -8281,7 +8159,7 @@
         <v/>
       </c>
       <c r="E77" s="8" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F77" s="9">
         <f>main!I84</f>
@@ -8292,7 +8170,7 @@
         <v/>
       </c>
       <c r="H77" s="8" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I77" s="8">
         <f t="shared" si="3"/>
@@ -8305,7 +8183,7 @@
         <v/>
       </c>
       <c r="B78" s="8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C78" s="9">
         <f>main!H85</f>
@@ -8316,7 +8194,7 @@
         <v/>
       </c>
       <c r="E78" s="8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F78" s="9">
         <f>main!I85</f>
@@ -8327,7 +8205,7 @@
         <v/>
       </c>
       <c r="H78" s="8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I78" s="8">
         <f t="shared" si="3"/>
@@ -8340,7 +8218,7 @@
         <v/>
       </c>
       <c r="B79" s="8" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C79" s="9">
         <f>main!H86</f>
@@ -8351,7 +8229,7 @@
         <v/>
       </c>
       <c r="E79" s="8" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F79" s="9">
         <f>main!I86</f>
@@ -8362,7 +8240,7 @@
         <v/>
       </c>
       <c r="H79" s="8" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I79" s="8">
         <f t="shared" si="3"/>
@@ -8375,7 +8253,7 @@
         <v/>
       </c>
       <c r="B80" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C80" s="9">
         <f>main!H87</f>
@@ -8386,7 +8264,7 @@
         <v/>
       </c>
       <c r="E80" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F80" s="9">
         <f>main!I87</f>
@@ -8397,7 +8275,7 @@
         <v/>
       </c>
       <c r="H80" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="I80" s="8">
         <f t="shared" si="3"/>
@@ -8410,7 +8288,7 @@
         <v/>
       </c>
       <c r="B81" s="8" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C81" s="9">
         <f>main!H88</f>
@@ -8421,7 +8299,7 @@
         <v/>
       </c>
       <c r="E81" s="8" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F81" s="9">
         <f>main!I88</f>
@@ -8432,7 +8310,7 @@
         <v/>
       </c>
       <c r="H81" s="8" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="I81" s="8">
         <f t="shared" si="3"/>
@@ -8445,7 +8323,7 @@
         <v/>
       </c>
       <c r="B82" s="8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C82" s="9">
         <f>main!H89</f>
@@ -8456,7 +8334,7 @@
         <v/>
       </c>
       <c r="E82" s="8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F82" s="9">
         <f>main!I89</f>
@@ -8467,7 +8345,7 @@
         <v/>
       </c>
       <c r="H82" s="8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I82" s="8">
         <f t="shared" si="3"/>
@@ -8480,7 +8358,7 @@
         <v/>
       </c>
       <c r="B83" s="8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C83" s="9">
         <f>main!H90</f>
@@ -8491,7 +8369,7 @@
         <v/>
       </c>
       <c r="E83" s="8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F83" s="9">
         <f>main!I90</f>
@@ -8502,7 +8380,7 @@
         <v/>
       </c>
       <c r="H83" s="8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I83" s="8">
         <f t="shared" si="3"/>
@@ -8515,7 +8393,7 @@
         <v/>
       </c>
       <c r="B84" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C84" s="9">
         <f>main!H91</f>
@@ -8526,7 +8404,7 @@
         <v/>
       </c>
       <c r="E84" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F84" s="9">
         <f>main!I91</f>
@@ -8537,7 +8415,7 @@
         <v/>
       </c>
       <c r="H84" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I84" s="8">
         <f t="shared" si="3"/>
@@ -8550,7 +8428,7 @@
         <v/>
       </c>
       <c r="B85" s="8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C85" s="9">
         <f>main!H92</f>
@@ -8561,7 +8439,7 @@
         <v/>
       </c>
       <c r="E85" s="8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F85" s="9">
         <f>main!I92</f>
@@ -8572,7 +8450,7 @@
         <v/>
       </c>
       <c r="H85" s="8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I85" s="8">
         <f t="shared" si="3"/>
@@ -8585,7 +8463,7 @@
         <v/>
       </c>
       <c r="B86" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C86" s="9">
         <f>main!H93</f>
@@ -8596,7 +8474,7 @@
         <v/>
       </c>
       <c r="E86" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F86" s="9">
         <f>main!I93</f>
@@ -8607,7 +8485,7 @@
         <v/>
       </c>
       <c r="H86" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I86" s="8">
         <f t="shared" si="3"/>
@@ -8620,7 +8498,7 @@
         <v/>
       </c>
       <c r="B87" s="8" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C87" s="9">
         <f>main!H94</f>
@@ -8631,7 +8509,7 @@
         <v/>
       </c>
       <c r="E87" s="8" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F87" s="9">
         <f>main!I94</f>
@@ -8642,7 +8520,7 @@
         <v/>
       </c>
       <c r="H87" s="8" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="I87" s="8">
         <f t="shared" si="3"/>
@@ -8655,7 +8533,7 @@
         <v/>
       </c>
       <c r="B88" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C88" s="9">
         <f>main!H95</f>
@@ -8666,7 +8544,7 @@
         <v/>
       </c>
       <c r="E88" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F88" s="9">
         <f>main!I95</f>
@@ -8677,7 +8555,7 @@
         <v/>
       </c>
       <c r="H88" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I88" s="8">
         <f t="shared" si="3"/>
@@ -8690,7 +8568,7 @@
         <v/>
       </c>
       <c r="B89" s="8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C89" s="9">
         <f>main!H96</f>
@@ -8701,7 +8579,7 @@
         <v/>
       </c>
       <c r="E89" s="8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F89" s="9">
         <f>main!I96</f>
@@ -8712,7 +8590,7 @@
         <v/>
       </c>
       <c r="H89" s="8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I89" s="8">
         <f t="shared" si="3"/>
@@ -8725,7 +8603,7 @@
         <v/>
       </c>
       <c r="B90" s="8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C90" s="9">
         <f>main!H97</f>
@@ -8736,7 +8614,7 @@
         <v/>
       </c>
       <c r="E90" s="8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F90" s="9">
         <f>main!I97</f>
@@ -8747,7 +8625,7 @@
         <v/>
       </c>
       <c r="H90" s="8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I90" s="8">
         <f t="shared" si="3"/>
@@ -8760,7 +8638,7 @@
         <v/>
       </c>
       <c r="B91" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C91" s="9">
         <f>main!H98</f>
@@ -8771,7 +8649,7 @@
         <v/>
       </c>
       <c r="E91" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F91" s="9">
         <f>main!I98</f>
@@ -8782,7 +8660,7 @@
         <v/>
       </c>
       <c r="H91" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="I91" s="8">
         <f t="shared" si="3"/>
@@ -8795,7 +8673,7 @@
         <v/>
       </c>
       <c r="B92" s="8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C92" s="9">
         <f>main!H99</f>
@@ -8806,7 +8684,7 @@
         <v/>
       </c>
       <c r="E92" s="8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F92" s="9">
         <f>main!I99</f>
@@ -8817,7 +8695,7 @@
         <v/>
       </c>
       <c r="H92" s="8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I92" s="8">
         <f t="shared" si="3"/>
@@ -8830,7 +8708,7 @@
         <v/>
       </c>
       <c r="B93" s="8" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C93" s="9">
         <f>main!H100</f>
@@ -8841,7 +8719,7 @@
         <v/>
       </c>
       <c r="E93" s="8" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="9">
         <f>main!I100</f>
@@ -8852,7 +8730,7 @@
         <v/>
       </c>
       <c r="H93" s="8" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="8">
         <f t="shared" si="3"/>
@@ -8865,7 +8743,7 @@
         <v/>
       </c>
       <c r="B94" s="8" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C94" s="9">
         <f>main!H101</f>
@@ -8876,7 +8754,7 @@
         <v/>
       </c>
       <c r="E94" s="8" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="9">
         <f>main!I101</f>
@@ -8887,7 +8765,7 @@
         <v/>
       </c>
       <c r="H94" s="8" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="8">
         <f t="shared" si="3"/>
@@ -8900,7 +8778,7 @@
         <v/>
       </c>
       <c r="B95" s="8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C95" s="9">
         <f>main!H102</f>
@@ -8911,7 +8789,7 @@
         <v/>
       </c>
       <c r="E95" s="8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F95" s="9">
         <f>main!I102</f>
@@ -8922,7 +8800,7 @@
         <v/>
       </c>
       <c r="H95" s="8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I95" s="8">
         <f t="shared" si="3"/>
@@ -8935,7 +8813,7 @@
         <v/>
       </c>
       <c r="B96" s="8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C96" s="9">
         <f>main!H103</f>
@@ -8946,7 +8824,7 @@
         <v/>
       </c>
       <c r="E96" s="8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F96" s="9">
         <f>main!I103</f>
@@ -8957,7 +8835,7 @@
         <v/>
       </c>
       <c r="H96" s="8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I96" s="8">
         <f t="shared" si="3"/>
@@ -8970,7 +8848,7 @@
         <v/>
       </c>
       <c r="B97" s="8" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C97" s="9">
         <f>main!H104</f>
@@ -8981,7 +8859,7 @@
         <v/>
       </c>
       <c r="E97" s="8" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F97" s="9">
         <f>main!I104</f>
@@ -8992,7 +8870,7 @@
         <v/>
       </c>
       <c r="H97" s="8" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I97" s="8">
         <f t="shared" si="3"/>

--- a/templates/02-ont-gDNA.xlsx
+++ b/templates/02-ont-gDNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D422C64-C8BD-7F4C-8F01-38CDDFF74956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD406013-3B11-4743-967A-D09CBEC6D977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2600" yWindow="-20500" windowWidth="27920" windowHeight="15940" xr2:uid="{0E74BB9A-F8B8-AA47-B7C7-EA2C2417D685}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" xr2:uid="{0E74BB9A-F8B8-AA47-B7C7-EA2C2417D685}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="340">
   <si>
     <t>The incubations are done off instrument</t>
   </si>
@@ -1239,7 +1239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1270,7 +1270,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1289,17 +1288,13 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -1317,16 +1312,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1370,19 +1369,19 @@
     <tableColumn id="8" xr3:uid="{FA78698F-F611-D543-B141-D777144BECEE}" name="source well" dataDxfId="6"/>
     <tableColumn id="1" xr3:uid="{91DE4E1A-6DA9-5D41-9DB5-21149FC9505F}" name="sample name"/>
     <tableColumn id="7" xr3:uid="{E7F73DE6-44A2-FD49-95BC-9E263FB79FB0}" name="barcode"/>
-    <tableColumn id="2" xr3:uid="{D3E7E880-2BC6-B94A-AFA4-408237577810}" name="DNA size" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{D3E7E880-2BC6-B94A-AFA4-408237577810}" name="DNA size" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{AF07D2D6-012E-8643-901A-5055CCEAF026}" name="ng/ul"/>
-    <tableColumn id="4" xr3:uid="{80D148B5-CECA-CA44-B1DD-F9E1A8DAA6A0}" name="fmol/rxn" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{80D148B5-CECA-CA44-B1DD-F9E1A8DAA6A0}" name="fmol/rxn" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F9/((E9*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6A4DD60B-B1AB-FF44-9E4F-4697D7C0CC9E}" name="ul DNA" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{6A4DD60B-B1AB-FF44-9E4F-4697D7C0CC9E}" name="ul DNA" dataDxfId="3">
       <calculatedColumnFormula array="1">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{53D08A06-9EBD-1143-A0BC-3E9BC0C89175}" name="ul water to 10" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{53D08A06-9EBD-1143-A0BC-3E9BC0C89175}" name="ul water to 10" dataDxfId="2">
       <calculatedColumnFormula>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0EE7AD1A-A1CC-364C-B346-C43B6AB6BFEF}" name="dest well" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{DDAE90F6-C57C-A64E-B7AF-286C3EB0FE38}" name="barcode well" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{0EE7AD1A-A1CC-364C-B346-C43B6AB6BFEF}" name="dest well" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{DDAE90F6-C57C-A64E-B7AF-286C3EB0FE38}" name="barcode well" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1702,7 +1701,7 @@
   <dimension ref="B1:Q105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1745,7 +1744,7 @@
       <c r="I4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="17"/>
+      <c r="J4" s="16"/>
       <c r="M4" s="1" t="s">
         <v>311</v>
       </c>
@@ -1758,21 +1757,21 @@
         <v>329</v>
       </c>
       <c r="J5" s="8">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="17"/>
       <c r="I6" t="s">
         <v>332</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="20" t="s">
         <v>312</v>
       </c>
       <c r="N6" s="11" t="s">
@@ -1786,8 +1785,8 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G7" s="19"/>
-      <c r="M7" s="21" t="s">
+      <c r="G7" s="18"/>
+      <c r="M7" s="20" t="s">
         <v>314</v>
       </c>
       <c r="N7" s="11">
@@ -1831,7 +1830,7 @@
       <c r="K8" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="20" t="s">
         <v>309</v>
       </c>
       <c r="N8" s="11" t="s">
@@ -1862,15 +1861,15 @@
       </c>
       <c r="G9" s="14" cm="1">
         <f t="array" ref="G9">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F9/((E9*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
-        <v>5.3940819037525722</v>
+        <v>2.6970409518762861</v>
       </c>
       <c r="H9" s="2" cm="1">
         <f t="array" ref="H9">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2">
         <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>105</v>
@@ -1879,7 +1878,7 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v>A01</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="20" t="s">
         <v>319</v>
       </c>
       <c r="N9" s="11" t="s">
@@ -1904,15 +1903,15 @@
       </c>
       <c r="G10" s="14" cm="1">
         <f t="array" ref="G10">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F10/((E10*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
-        <v>5.3940819037525722</v>
+        <v>2.6970409518762861</v>
       </c>
       <c r="H10" s="2" cm="1">
         <f t="array" ref="H10">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I10" s="2">
         <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>106</v>
@@ -1921,7 +1920,7 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v>B01</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="20" t="s">
         <v>318</v>
       </c>
       <c r="N10" s="11" t="s">
@@ -1946,15 +1945,15 @@
       </c>
       <c r="G11" s="14" cm="1">
         <f t="array" ref="G11">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F11/((E11*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
-        <v>5.3940819037525722</v>
+        <v>2.6970409518762861</v>
       </c>
       <c r="H11" s="2" cm="1">
         <f t="array" ref="H11">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I11" s="2">
         <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>107</v>
@@ -1996,7 +1995,7 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v>D01</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="20" t="s">
         <v>322</v>
       </c>
       <c r="N12" s="11" t="s">
@@ -2024,12 +2023,12 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="20" t="s">
         <v>336</v>
       </c>
       <c r="N13">
         <f>COUNTA(Table1[source well])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
@@ -2053,12 +2052,12 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="19">
         <f>N13*11</f>
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
@@ -2082,12 +2081,12 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="21">
         <f>SUM(Table1[fmol/rxn])</f>
-        <v>21.576327615010289</v>
+        <v>21.576296156408109</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
@@ -2113,25 +2112,39 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="12">
+        <v>10000</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
       <c r="G17" s="14" cm="1">
         <f t="array" ref="G17">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F17/((E17*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
-        <v>0</v>
+        <v>8.0910913970266769</v>
       </c>
       <c r="H17" s="2" cm="1">
         <f t="array" ref="H17">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2">
         <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>113</v>
       </c>
       <c r="K17" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v/>
+        <v>D01</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
@@ -5472,7 +5485,7 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5527,7 +5540,7 @@
       </c>
       <c r="C2" s="9">
         <f>main!H9</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>IF(C2=0, "", "A01")</f>
@@ -5538,7 +5551,7 @@
       </c>
       <c r="F2" s="9">
         <f>main!I9</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D9,Table2[name],Table2[well],"")</f>
@@ -5562,7 +5575,7 @@
       </c>
       <c r="C3" s="9">
         <f>main!H10</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="8" t="str">
         <f t="shared" ref="D3:D66" si="0">IF(C3=0, "", "A01")</f>
@@ -5573,7 +5586,7 @@
       </c>
       <c r="F3" s="9">
         <f>main!I10</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D10,Table2[name],Table2[well],"")</f>
@@ -5597,7 +5610,7 @@
       </c>
       <c r="C4" s="9">
         <f>main!H11</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5608,7 +5621,7 @@
       </c>
       <c r="F4" s="9">
         <f>main!I11</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="G4" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D11,Table2[name],Table2[well],"")</f>
@@ -5800,36 +5813,36 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="str">
         <f>TEXT(main!B17, "")</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="9">
         <f>main!H17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>113</v>
       </c>
       <c r="F10" s="9">
         <f>main!I17</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G10" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D17,Table2[name],Table2[well],"")</f>
-        <v/>
+        <v>D01</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>113</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">

--- a/templates/02-ont-gDNA.xlsx
+++ b/templates/02-ont-gDNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD406013-3B11-4743-967A-D09CBEC6D977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D2633A-902D-2E45-8DF6-037E5947107E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" xr2:uid="{0E74BB9A-F8B8-AA47-B7C7-EA2C2417D685}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" xr2:uid="{0E74BB9A-F8B8-AA47-B7C7-EA2C2417D685}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="341">
   <si>
     <t>The incubations are done off instrument</t>
   </si>
@@ -1079,6 +1079,9 @@
   </si>
   <si>
     <t>SQK-RBK114.96</t>
+  </si>
+  <si>
+    <t>realng</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1282,11 +1285,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -1363,26 +1372,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59494247-6707-4A4B-A68E-97E8FDDD4AF4}" name="Table1" displayName="Table1" ref="B8:K104" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="B8:K104" xr:uid="{59494247-6707-4A4B-A68E-97E8FDDD4AF4}"/>
-  <tableColumns count="10">
-    <tableColumn id="8" xr3:uid="{FA78698F-F611-D543-B141-D777144BECEE}" name="source well" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59494247-6707-4A4B-A68E-97E8FDDD4AF4}" name="Table1" displayName="Table1" ref="B8:L104" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="B8:L104" xr:uid="{59494247-6707-4A4B-A68E-97E8FDDD4AF4}"/>
+  <tableColumns count="11">
+    <tableColumn id="8" xr3:uid="{FA78698F-F611-D543-B141-D777144BECEE}" name="source well" dataDxfId="7"/>
     <tableColumn id="1" xr3:uid="{91DE4E1A-6DA9-5D41-9DB5-21149FC9505F}" name="sample name"/>
     <tableColumn id="7" xr3:uid="{E7F73DE6-44A2-FD49-95BC-9E263FB79FB0}" name="barcode"/>
-    <tableColumn id="2" xr3:uid="{D3E7E880-2BC6-B94A-AFA4-408237577810}" name="DNA size" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{D3E7E880-2BC6-B94A-AFA4-408237577810}" name="DNA size" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{AF07D2D6-012E-8643-901A-5055CCEAF026}" name="ng/ul"/>
-    <tableColumn id="4" xr3:uid="{80D148B5-CECA-CA44-B1DD-F9E1A8DAA6A0}" name="fmol/rxn" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{80D148B5-CECA-CA44-B1DD-F9E1A8DAA6A0}" name="fmol/rxn" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F9/((E9*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6A4DD60B-B1AB-FF44-9E4F-4697D7C0CC9E}" name="ul DNA" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{6A4DD60B-B1AB-FF44-9E4F-4697D7C0CC9E}" name="ul DNA" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{53D08A06-9EBD-1143-A0BC-3E9BC0C89175}" name="ul water to 10" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{53D08A06-9EBD-1143-A0BC-3E9BC0C89175}" name="ul water to 10" dataDxfId="3">
       <calculatedColumnFormula>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0EE7AD1A-A1CC-364C-B346-C43B6AB6BFEF}" name="dest well" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{DDAE90F6-C57C-A64E-B7AF-286C3EB0FE38}" name="barcode well" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{0EE7AD1A-A1CC-364C-B346-C43B6AB6BFEF}" name="dest well" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{DDAE90F6-C57C-A64E-B7AF-286C3EB0FE38}" name="barcode well" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{2D51ABE9-5237-A34C-B29F-BA12D5413FEF}" name="realng" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -1698,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842AFD07-9B34-384A-83A8-BAD898DE59C4}">
-  <dimension ref="B1:Q105"/>
+  <dimension ref="B1:R105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1715,29 +1727,30 @@
     <col min="9" max="9" width="19.83203125" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" customWidth="1"/>
-    <col min="15" max="15" width="12.5" customWidth="1"/>
-    <col min="16" max="16" width="13.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>339</v>
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="I3" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>335</v>
       </c>
@@ -1745,11 +1758,11 @@
         <v>4</v>
       </c>
       <c r="J4" s="16"/>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +1773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -1771,35 +1784,35 @@
       <c r="J6" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="N6" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="O6" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>299</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="G7" s="18"/>
-      <c r="M7" s="20" t="s">
+      <c r="N7" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="N7" s="11">
+      <c r="O7" s="11">
         <v>4</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>302</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>298</v>
       </c>
@@ -1830,20 +1843,24 @@
       <c r="K8" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="L8" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>305</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>105</v>
       </c>
@@ -1857,19 +1874,19 @@
         <v>30000</v>
       </c>
       <c r="F9">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G9" s="14" cm="1">
         <f t="array" ref="G9">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F9/((E9*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
-        <v>2.6970409518762861</v>
+        <v>2.6970409518762866</v>
       </c>
       <c r="H9" s="2" cm="1">
         <f t="array" ref="H9">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]), 0, $J$5/Table1[[#This Row],[ng/ul]] &gt; 10, 10, $J$5/Table1[[#This Row],[ng/ul]] &lt; 0.5, 0.5, TRUE, $J$5/Table1[[#This Row],[ng/ul]])</f>
-        <v>1</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="I9" s="2">
         <f>IF(Table1[[#This Row],[ul DNA]]=0,0,10-Table1[[#This Row],[ul DNA]])</f>
-        <v>9</v>
+        <v>7.9166666666666661</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>105</v>
@@ -1878,14 +1895,19 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v>A01</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="L9" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>50</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>106</v>
       </c>
@@ -1920,14 +1942,19 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v>B01</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="L10" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>50</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>107</v>
       </c>
@@ -1962,8 +1989,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v>C01</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L11" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>50</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>111</v>
       </c>
@@ -1995,14 +2027,19 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v>D01</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="L12" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>100</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="O12" s="11" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="G13" s="14" cm="1">
         <f t="array" ref="G13">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F13/((E13*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2023,15 +2060,20 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="L13" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <f>COUNTA(Table1[source well])</f>
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="G14" s="14" cm="1">
         <f t="array" ref="G14">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F14/((E14*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2052,15 +2094,20 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="L14" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="N14" s="19">
-        <f>N13*11</f>
+      <c r="O14" s="19">
+        <f>O13*11</f>
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="G15" s="14" cm="1">
         <f t="array" ref="G15">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F15/((E15*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2081,15 +2128,20 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="L15" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="N15" s="21">
+      <c r="O15" s="21">
         <f>SUM(Table1[fmol/rxn])</f>
         <v>21.576296156408109</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="G16" s="14" cm="1">
         <f t="array" ref="G16">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F16/((E16*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2110,8 +2162,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>105</v>
       </c>
@@ -2146,8 +2203,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v>D01</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>50</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="G18" s="14" cm="1">
         <f t="array" ref="G18">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F18/((E18*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2168,8 +2230,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="G19" s="14" cm="1">
         <f t="array" ref="G19">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F19/((E19*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2190,8 +2257,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="G20" s="14" cm="1">
         <f t="array" ref="G20">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F20/((E20*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2212,8 +2284,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="G21" s="14" cm="1">
         <f t="array" ref="G21">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F21/((E21*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2234,8 +2311,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="G22" s="14" cm="1">
         <f t="array" ref="G22">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F22/((E22*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2256,8 +2338,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="G23" s="14" cm="1">
         <f t="array" ref="G23">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F23/((E23*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2278,8 +2365,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="G24" s="14" cm="1">
         <f t="array" ref="G24">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F24/((E24*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2300,8 +2392,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="G25" s="14" cm="1">
         <f t="array" ref="G25">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F25/((E25*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2322,8 +2419,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="G26" s="14" cm="1">
         <f t="array" ref="G26">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F26/((E26*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2344,8 +2446,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="G27" s="14" cm="1">
         <f t="array" ref="G27">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F27/((E27*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2366,8 +2473,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="G28" s="14" cm="1">
         <f t="array" ref="G28">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F28/((E28*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2388,8 +2500,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="G29" s="14" cm="1">
         <f t="array" ref="G29">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F29/((E29*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2410,8 +2527,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="G30" s="14" cm="1">
         <f t="array" ref="G30">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F30/((E30*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2432,8 +2554,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="G31" s="14" cm="1">
         <f t="array" ref="G31">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F31/((E31*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2454,8 +2581,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="G32" s="14" cm="1">
         <f t="array" ref="G32">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F32/((E32*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2476,8 +2608,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="G33" s="14" cm="1">
         <f t="array" ref="G33">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F33/((E33*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2498,8 +2635,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="G34" s="14" cm="1">
         <f t="array" ref="G34">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F34/((E34*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2520,8 +2662,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="G35" s="14" cm="1">
         <f t="array" ref="G35">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F35/((E35*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2542,8 +2689,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="G36" s="14" cm="1">
         <f t="array" ref="G36">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F36/((E36*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2564,8 +2716,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L36" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="G37" s="14" cm="1">
         <f t="array" ref="G37">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F37/((E37*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2586,8 +2743,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L37" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="G38" s="14" cm="1">
         <f t="array" ref="G38">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F38/((E38*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2608,8 +2770,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="G39" s="14" cm="1">
         <f t="array" ref="G39">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F39/((E39*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2630,8 +2797,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="G40" s="14" cm="1">
         <f t="array" ref="G40">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F40/((E40*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2652,8 +2824,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="G41" s="14" cm="1">
         <f t="array" ref="G41">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F41/((E41*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2674,8 +2851,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="G42" s="14" cm="1">
         <f t="array" ref="G42">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F42/((E42*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2696,8 +2878,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="G43" s="14" cm="1">
         <f t="array" ref="G43">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F43/((E43*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2718,8 +2905,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="G44" s="14" cm="1">
         <f t="array" ref="G44">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F44/((E44*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2740,8 +2932,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="G45" s="14" cm="1">
         <f t="array" ref="G45">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F45/((E45*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2762,8 +2959,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="G46" s="14" cm="1">
         <f t="array" ref="G46">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F46/((E46*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2784,8 +2986,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="G47" s="14" cm="1">
         <f t="array" ref="G47">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F47/((E47*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2806,8 +3013,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="G48" s="14" cm="1">
         <f t="array" ref="G48">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F48/((E48*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2828,8 +3040,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="G49" s="14" cm="1">
         <f t="array" ref="G49">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F49/((E49*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2850,8 +3067,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="G50" s="14" cm="1">
         <f t="array" ref="G50">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F50/((E50*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2872,8 +3094,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="G51" s="14" cm="1">
         <f t="array" ref="G51">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F51/((E51*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2894,8 +3121,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="G52" s="14" cm="1">
         <f t="array" ref="G52">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F52/((E52*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2916,8 +3148,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="G53" s="14" cm="1">
         <f t="array" ref="G53">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F53/((E53*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2938,8 +3175,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="G54" s="14" cm="1">
         <f t="array" ref="G54">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F54/((E54*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2960,8 +3202,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="G55" s="14" cm="1">
         <f t="array" ref="G55">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F55/((E55*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -2982,8 +3229,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="G56" s="14" cm="1">
         <f t="array" ref="G56">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F56/((E56*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3004,8 +3256,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="G57" s="14" cm="1">
         <f t="array" ref="G57">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F57/((E57*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3026,8 +3283,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="G58" s="14" cm="1">
         <f t="array" ref="G58">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F58/((E58*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3048,8 +3310,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="G59" s="14" cm="1">
         <f t="array" ref="G59">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F59/((E59*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3070,8 +3337,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="G60" s="14" cm="1">
         <f t="array" ref="G60">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F60/((E60*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3092,8 +3364,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="G61" s="14" cm="1">
         <f t="array" ref="G61">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F61/((E61*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3114,8 +3391,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="G62" s="14" cm="1">
         <f t="array" ref="G62">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F62/((E62*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3136,8 +3418,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="G63" s="14" cm="1">
         <f t="array" ref="G63">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F63/((E63*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3158,8 +3445,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="G64" s="14" cm="1">
         <f t="array" ref="G64">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F64/((E64*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3180,8 +3472,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="G65" s="14" cm="1">
         <f t="array" ref="G65">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F65/((E65*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3202,8 +3499,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="G66" s="14" cm="1">
         <f t="array" ref="G66">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F66/((E66*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3224,8 +3526,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="G67" s="14" cm="1">
         <f t="array" ref="G67">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F67/((E67*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3246,8 +3553,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="G68" s="14" cm="1">
         <f t="array" ref="G68">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F68/((E68*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3268,8 +3580,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="G69" s="14" cm="1">
         <f t="array" ref="G69">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F69/((E69*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3290,8 +3607,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="G70" s="14" cm="1">
         <f t="array" ref="G70">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F70/((E70*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3312,8 +3634,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="2"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="G71" s="14" cm="1">
         <f t="array" ref="G71">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F71/((E71*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3334,8 +3661,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="2"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="G72" s="14" cm="1">
         <f t="array" ref="G72">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F72/((E72*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3356,8 +3688,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="G73" s="14" cm="1">
         <f t="array" ref="G73">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F73/((E73*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3378,8 +3715,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="G74" s="14" cm="1">
         <f t="array" ref="G74">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F74/((E74*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3400,8 +3742,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="G75" s="14" cm="1">
         <f t="array" ref="G75">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F75/((E75*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3422,8 +3769,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="G76" s="14" cm="1">
         <f t="array" ref="G76">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F76/((E76*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3444,8 +3796,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="G77" s="14" cm="1">
         <f t="array" ref="G77">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F77/((E77*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3466,8 +3823,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="G78" s="14" cm="1">
         <f t="array" ref="G78">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F78/((E78*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3488,8 +3850,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L78" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="G79" s="14" cm="1">
         <f t="array" ref="G79">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F79/((E79*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3510,8 +3877,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L79" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="G80" s="14" cm="1">
         <f t="array" ref="G80">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F80/((E80*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3532,8 +3904,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="G81" s="14" cm="1">
         <f t="array" ref="G81">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F81/((E81*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3554,8 +3931,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="G82" s="14" cm="1">
         <f t="array" ref="G82">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F82/((E82*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3576,8 +3958,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
       <c r="G83" s="14" cm="1">
         <f t="array" ref="G83">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F83/((E83*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3598,8 +3985,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
       <c r="G84" s="14" cm="1">
         <f t="array" ref="G84">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F84/((E84*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3620,8 +4012,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
       <c r="G85" s="14" cm="1">
         <f t="array" ref="G85">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F85/((E85*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3642,8 +4039,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
       <c r="G86" s="14" cm="1">
         <f t="array" ref="G86">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F86/((E86*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3664,8 +4066,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="G87" s="14" cm="1">
         <f t="array" ref="G87">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F87/((E87*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3686,8 +4093,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="G88" s="14" cm="1">
         <f t="array" ref="G88">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F88/((E88*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3708,8 +4120,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
       <c r="G89" s="14" cm="1">
         <f t="array" ref="G89">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F89/((E89*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3730,8 +4147,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
       <c r="G90" s="14" cm="1">
         <f t="array" ref="G90">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F90/((E90*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3752,8 +4174,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="G91" s="14" cm="1">
         <f t="array" ref="G91">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F91/((E91*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3774,8 +4201,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
       <c r="G92" s="14" cm="1">
         <f t="array" ref="G92">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F92/((E92*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3796,8 +4228,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B93" s="2"/>
       <c r="G93" s="14" cm="1">
         <f t="array" ref="G93">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F93/((E93*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3818,8 +4255,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B94" s="2"/>
       <c r="G94" s="14" cm="1">
         <f t="array" ref="G94">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F94/((E94*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3840,8 +4282,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
       <c r="G95" s="14" cm="1">
         <f t="array" ref="G95">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F95/((E95*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3862,8 +4309,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B96" s="2"/>
       <c r="G96" s="14" cm="1">
         <f t="array" ref="G96">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F96/((E96*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3884,8 +4336,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="2"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B97" s="2"/>
       <c r="G97" s="14" cm="1">
         <f t="array" ref="G97">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F97/((E97*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3906,8 +4363,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="2"/>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="G98" s="14" cm="1">
         <f t="array" ref="G98">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F98/((E98*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3928,8 +4390,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="2"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="G99" s="14" cm="1">
         <f t="array" ref="G99">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F99/((E99*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3950,8 +4417,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="2"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="G100" s="14" cm="1">
         <f t="array" ref="G100">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F100/((E100*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3972,8 +4444,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M100" s="2"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="G101" s="14" cm="1">
         <f t="array" ref="G101">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F101/((E101*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -3994,8 +4471,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="2"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="G102" s="14" cm="1">
         <f t="array" ref="G102">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F102/((E102*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -4016,8 +4498,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L102" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M102" s="2"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="G103" s="14" cm="1">
         <f t="array" ref="G103">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F103/((E103*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -4038,8 +4525,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L103" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M103" s="2"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="G104" s="14" cm="1">
         <f t="array" ref="G104">_xlfn.IFS(ISBLANK(Table1[[#This Row],[DNA size]]), 0, TRUE, F104/((E104*617.96)+36.04) * 1000000*Table1[[#This Row],[ul DNA]])</f>
@@ -4060,8 +4552,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L104" s="2">
+        <f>Table1[[#This Row],[ul DNA]]*Table1[[#This Row],[ng/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M104" s="2"/>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
       <c r="D105" s="2"/>
       <c r="H105" s="2"/>
@@ -4072,7 +4569,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="N6" twoDigitTextYear="1"/>
+    <ignoredError sqref="O6" twoDigitTextYear="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -5540,7 +6037,7 @@
       </c>
       <c r="C2" s="9">
         <f>main!H9</f>
-        <v>1</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>IF(C2=0, "", "A01")</f>
@@ -5551,7 +6048,7 @@
       </c>
       <c r="F2" s="9">
         <f>main!I9</f>
-        <v>9</v>
+        <v>7.9166666666666661</v>
       </c>
       <c r="G2" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D9,Table2[name],Table2[well],"")</f>
